--- a/published-data/2020-05-05/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/2020-05-05/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -1206,10 +1206,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D2">
-        <v>307915</v>
+        <v>290142</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1238,10 +1238,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D3">
-        <v>709235</v>
+        <v>697267</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>59646</v>
+        <v>56737</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1302,10 +1302,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>1855</v>
+        <v>1821</v>
       </c>
       <c r="D5">
-        <v>2690167</v>
+        <v>2642815</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1334,10 +1334,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>2100</v>
+        <v>2083</v>
       </c>
       <c r="D6">
-        <v>2855679</v>
+        <v>2835262</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1366,10 +1366,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D7">
-        <v>371685</v>
+        <v>368685</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1398,10 +1398,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1528</v>
+        <v>1512</v>
       </c>
       <c r="D8">
-        <v>2211283</v>
+        <v>2192136</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1430,10 +1430,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D9">
-        <v>232178</v>
+        <v>222128</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1462,10 +1462,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10">
-        <v>116357</v>
+        <v>113357</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1494,10 +1494,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D11">
-        <v>386182</v>
+        <v>380346</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1526,10 +1526,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="D12">
-        <v>1166617</v>
+        <v>1133466</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1558,10 +1558,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D13">
-        <v>747127</v>
+        <v>735732</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1590,10 +1590,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="D14">
-        <v>907275</v>
+        <v>891462</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1622,10 +1622,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>1323</v>
+        <v>1297</v>
       </c>
       <c r="D15">
-        <v>1746266</v>
+        <v>1714913</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1654,10 +1654,10 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D16">
-        <v>612170</v>
+        <v>609770</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1686,10 +1686,10 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>2143</v>
+        <v>2113</v>
       </c>
       <c r="D17">
-        <v>2585939</v>
+        <v>2562096</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1750,10 +1750,10 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D19">
-        <v>365088</v>
+        <v>364834</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -2102,10 +2102,10 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D30">
-        <v>344773</v>
+        <v>344536</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -2134,10 +2134,10 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D31">
-        <v>762061</v>
+        <v>760572</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2262,10 +2262,10 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D35">
-        <v>658342</v>
+        <v>657882</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2422,10 +2422,10 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="D40">
-        <v>2375604</v>
+        <v>2371868</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2582,10 +2582,10 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D45">
-        <v>382076</v>
+        <v>380048</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D46">
-        <v>500073</v>
+        <v>499305</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -3350,10 +3350,10 @@
         <v>11</v>
       </c>
       <c r="C69">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="D69">
-        <v>3423193</v>
+        <v>3422301</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3542,10 +3542,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D75">
-        <v>1424068</v>
+        <v>1419656</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3574,10 +3574,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D76">
-        <v>648589</v>
+        <v>646928</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3606,10 +3606,10 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D77">
-        <v>984888</v>
+        <v>983134</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3670,10 +3670,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D79">
-        <v>793834</v>
+        <v>792634</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3702,10 +3702,10 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>2045</v>
+        <v>2039</v>
       </c>
       <c r="D80">
-        <v>2461239</v>
+        <v>2456901</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -4182,10 +4182,10 @@
         <v>11</v>
       </c>
       <c r="C95">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D95">
-        <v>210939</v>
+        <v>209079</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -4374,10 +4374,10 @@
         <v>11</v>
       </c>
       <c r="C101">
-        <v>2924</v>
+        <v>2920</v>
       </c>
       <c r="D101">
-        <v>4015797</v>
+        <v>4013519</v>
       </c>
       <c r="E101" t="s">
         <v>12</v>
@@ -4438,10 +4438,10 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D103">
-        <v>3854249</v>
+        <v>3852749</v>
       </c>
       <c r="E103" t="s">
         <v>12</v>
@@ -4566,10 +4566,10 @@
         <v>11</v>
       </c>
       <c r="C107">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D107">
-        <v>2560983</v>
+        <v>2557983</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -4630,10 +4630,10 @@
         <v>11</v>
       </c>
       <c r="C109">
-        <v>3856</v>
+        <v>3848</v>
       </c>
       <c r="D109">
-        <v>5027228</v>
+        <v>5018054</v>
       </c>
       <c r="E109" t="s">
         <v>12</v>
@@ -4662,10 +4662,10 @@
         <v>11</v>
       </c>
       <c r="C110">
-        <v>2627</v>
+        <v>2621</v>
       </c>
       <c r="D110">
-        <v>3580112</v>
+        <v>3573737</v>
       </c>
       <c r="E110" t="s">
         <v>12</v>
@@ -4726,10 +4726,10 @@
         <v>11</v>
       </c>
       <c r="C112">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D112">
-        <v>3590540</v>
+        <v>3590130</v>
       </c>
       <c r="E112" t="s">
         <v>12</v>
@@ -4790,10 +4790,10 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D114">
-        <v>1654605</v>
+        <v>1654005</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -4854,10 +4854,10 @@
         <v>11</v>
       </c>
       <c r="C116">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D116">
-        <v>77319</v>
+        <v>76065</v>
       </c>
       <c r="E116" t="s">
         <v>12</v>
@@ -4886,10 +4886,10 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <v>4529</v>
+        <v>4527</v>
       </c>
       <c r="D117">
-        <v>6554156</v>
+        <v>6551156</v>
       </c>
       <c r="E117" t="s">
         <v>12</v>
@@ -4982,10 +4982,10 @@
         <v>11</v>
       </c>
       <c r="C120">
-        <v>3750</v>
+        <v>3748</v>
       </c>
       <c r="D120">
-        <v>5405482</v>
+        <v>5405004</v>
       </c>
       <c r="E120" t="s">
         <v>12</v>
@@ -5078,10 +5078,10 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D123">
-        <v>1352082</v>
+        <v>1346082</v>
       </c>
       <c r="E123" t="s">
         <v>12</v>
@@ -5110,10 +5110,10 @@
         <v>11</v>
       </c>
       <c r="C124">
-        <v>2602</v>
+        <v>2598</v>
       </c>
       <c r="D124">
-        <v>3554735</v>
+        <v>3549307</v>
       </c>
       <c r="E124" t="s">
         <v>12</v>
@@ -5142,10 +5142,10 @@
         <v>11</v>
       </c>
       <c r="C125">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="D125">
-        <v>1822323</v>
+        <v>1817962</v>
       </c>
       <c r="E125" t="s">
         <v>12</v>
@@ -5174,10 +5174,10 @@
         <v>11</v>
       </c>
       <c r="C126">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="D126">
-        <v>3406575</v>
+        <v>3393060</v>
       </c>
       <c r="E126" t="s">
         <v>12</v>
@@ -5206,10 +5206,10 @@
         <v>11</v>
       </c>
       <c r="C127">
-        <v>3740</v>
+        <v>3721</v>
       </c>
       <c r="D127">
-        <v>5088808</v>
+        <v>5070903</v>
       </c>
       <c r="E127" t="s">
         <v>12</v>
@@ -5238,10 +5238,10 @@
         <v>11</v>
       </c>
       <c r="C128">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="D128">
-        <v>1701706</v>
+        <v>1701032</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -5270,10 +5270,10 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>4343</v>
+        <v>4333</v>
       </c>
       <c r="D129">
-        <v>5312752</v>
+        <v>5308620</v>
       </c>
       <c r="E129" t="s">
         <v>12</v>
@@ -5334,10 +5334,10 @@
         <v>11</v>
       </c>
       <c r="C131">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D131">
-        <v>974854</v>
+        <v>974534</v>
       </c>
       <c r="E131" t="s">
         <v>12</v>
@@ -5590,10 +5590,10 @@
         <v>11</v>
       </c>
       <c r="C139">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D139">
-        <v>586309</v>
+        <v>583559</v>
       </c>
       <c r="E139" t="s">
         <v>12</v>
@@ -5718,10 +5718,10 @@
         <v>11</v>
       </c>
       <c r="C143">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D143">
-        <v>2144927</v>
+        <v>2141927</v>
       </c>
       <c r="E143" t="s">
         <v>12</v>
@@ -5750,10 +5750,10 @@
         <v>11</v>
       </c>
       <c r="C144">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D144">
-        <v>752803</v>
+        <v>752303</v>
       </c>
       <c r="E144" t="s">
         <v>12</v>
@@ -5782,10 +5782,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>2644</v>
+        <v>2638</v>
       </c>
       <c r="D145">
-        <v>3288929</v>
+        <v>3284711</v>
       </c>
       <c r="E145" t="s">
         <v>12</v>
@@ -6198,10 +6198,10 @@
         <v>11</v>
       </c>
       <c r="C158">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D158">
-        <v>1001807</v>
+        <v>994917</v>
       </c>
       <c r="E158" t="s">
         <v>12</v>
@@ -6230,10 +6230,10 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="D159">
-        <v>1870073</v>
+        <v>1862243</v>
       </c>
       <c r="E159" t="s">
         <v>12</v>
@@ -6262,10 +6262,10 @@
         <v>11</v>
       </c>
       <c r="C160">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D160">
-        <v>711143</v>
+        <v>708477</v>
       </c>
       <c r="E160" t="s">
         <v>12</v>
@@ -6294,10 +6294,10 @@
         <v>11</v>
       </c>
       <c r="C161">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="D161">
-        <v>2658116</v>
+        <v>2655100</v>
       </c>
       <c r="E161" t="s">
         <v>12</v>
@@ -6358,10 +6358,10 @@
         <v>11</v>
       </c>
       <c r="C163">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="D163">
-        <v>2397420</v>
+        <v>2394420</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -6454,10 +6454,10 @@
         <v>11</v>
       </c>
       <c r="C166">
-        <v>5146</v>
+        <v>5140</v>
       </c>
       <c r="D166">
-        <v>7467165</v>
+        <v>7464343</v>
       </c>
       <c r="E166" t="s">
         <v>12</v>
@@ -6486,10 +6486,10 @@
         <v>11</v>
       </c>
       <c r="C167">
-        <v>7976</v>
+        <v>7970</v>
       </c>
       <c r="D167">
-        <v>10809149</v>
+        <v>10804925</v>
       </c>
       <c r="E167" t="s">
         <v>12</v>
@@ -6518,10 +6518,10 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>3546</v>
+        <v>3534</v>
       </c>
       <c r="D168">
-        <v>4931233</v>
+        <v>4920141</v>
       </c>
       <c r="E168" t="s">
         <v>12</v>
@@ -6550,10 +6550,10 @@
         <v>11</v>
       </c>
       <c r="C169">
-        <v>4874</v>
+        <v>4868</v>
       </c>
       <c r="D169">
-        <v>7094747</v>
+        <v>7089425</v>
       </c>
       <c r="E169" t="s">
         <v>12</v>
@@ -6582,10 +6582,10 @@
         <v>11</v>
       </c>
       <c r="C170">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="D170">
-        <v>1690753</v>
+        <v>1686505</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -6646,10 +6646,10 @@
         <v>11</v>
       </c>
       <c r="C172">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="D172">
-        <v>2037446</v>
+        <v>2034446</v>
       </c>
       <c r="E172" t="s">
         <v>12</v>
@@ -6678,10 +6678,10 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <v>6571</v>
+        <v>6549</v>
       </c>
       <c r="D173">
-        <v>8913697</v>
+        <v>8891460</v>
       </c>
       <c r="E173" t="s">
         <v>12</v>
@@ -6710,10 +6710,10 @@
         <v>11</v>
       </c>
       <c r="C174">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="D174">
-        <v>3365310</v>
+        <v>3362567</v>
       </c>
       <c r="E174" t="s">
         <v>12</v>
@@ -6742,10 +6742,10 @@
         <v>11</v>
       </c>
       <c r="C175">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D175">
-        <v>3317208</v>
+        <v>3312441</v>
       </c>
       <c r="E175" t="s">
         <v>12</v>
@@ -6774,10 +6774,10 @@
         <v>11</v>
       </c>
       <c r="C176">
-        <v>6322</v>
+        <v>6311</v>
       </c>
       <c r="D176">
-        <v>8635382</v>
+        <v>8629012</v>
       </c>
       <c r="E176" t="s">
         <v>12</v>
@@ -6806,10 +6806,10 @@
         <v>11</v>
       </c>
       <c r="C177">
-        <v>2380</v>
+        <v>2374</v>
       </c>
       <c r="D177">
-        <v>2931461</v>
+        <v>2925101</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
@@ -6838,10 +6838,10 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>5852</v>
+        <v>5840</v>
       </c>
       <c r="D178">
-        <v>7462376</v>
+        <v>7449614</v>
       </c>
       <c r="E178" t="s">
         <v>12</v>
@@ -7094,10 +7094,10 @@
         <v>11</v>
       </c>
       <c r="C186">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D186">
-        <v>235433</v>
+        <v>232433</v>
       </c>
       <c r="E186" t="s">
         <v>12</v>
@@ -7158,10 +7158,10 @@
         <v>11</v>
       </c>
       <c r="C188">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D188">
-        <v>810814</v>
+        <v>808514</v>
       </c>
       <c r="E188" t="s">
         <v>12</v>
@@ -7190,10 +7190,10 @@
         <v>11</v>
       </c>
       <c r="C189">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D189">
-        <v>1563642</v>
+        <v>1562442</v>
       </c>
       <c r="E189" t="s">
         <v>12</v>
@@ -7222,10 +7222,10 @@
         <v>11</v>
       </c>
       <c r="C190">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D190">
-        <v>769749</v>
+        <v>767850</v>
       </c>
       <c r="E190" t="s">
         <v>12</v>
@@ -7254,10 +7254,10 @@
         <v>11</v>
       </c>
       <c r="C191">
-        <v>5441</v>
+        <v>5427</v>
       </c>
       <c r="D191">
-        <v>7533936</v>
+        <v>7515074</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -7286,10 +7286,10 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="D192">
-        <v>2034861</v>
+        <v>2032147</v>
       </c>
       <c r="E192" t="s">
         <v>12</v>
@@ -7318,10 +7318,10 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D193">
-        <v>984433</v>
+        <v>977653</v>
       </c>
       <c r="E193" t="s">
         <v>12</v>
@@ -7350,10 +7350,10 @@
         <v>11</v>
       </c>
       <c r="C194">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="D194">
-        <v>2217462</v>
+        <v>2213342</v>
       </c>
       <c r="E194" t="s">
         <v>12</v>
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="C199">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="D199">
-        <v>3098099</v>
+        <v>3096777</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -7606,10 +7606,10 @@
         <v>11</v>
       </c>
       <c r="C202">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D202">
-        <v>170942</v>
+        <v>164942</v>
       </c>
       <c r="E202" t="s">
         <v>13</v>
@@ -7670,10 +7670,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D204">
-        <v>372632</v>
+        <v>371990</v>
       </c>
       <c r="E204" t="s">
         <v>13</v>
@@ -7798,10 +7798,10 @@
         <v>11</v>
       </c>
       <c r="C208">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D208">
-        <v>1563212</v>
+        <v>1560670</v>
       </c>
       <c r="E208" t="s">
         <v>13</v>
@@ -7862,10 +7862,10 @@
         <v>11</v>
       </c>
       <c r="C210">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="D210">
-        <v>2062748</v>
+        <v>2060842</v>
       </c>
       <c r="E210" t="s">
         <v>13</v>
@@ -8278,10 +8278,10 @@
         <v>11</v>
       </c>
       <c r="C223">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D223">
-        <v>653393</v>
+        <v>650532</v>
       </c>
       <c r="E223" t="s">
         <v>13</v>
@@ -8310,10 +8310,10 @@
         <v>11</v>
       </c>
       <c r="C224">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D224">
-        <v>1427297</v>
+        <v>1426777</v>
       </c>
       <c r="E224" t="s">
         <v>13</v>
@@ -8726,10 +8726,10 @@
         <v>11</v>
       </c>
       <c r="C237">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D237">
-        <v>297054</v>
+        <v>295854</v>
       </c>
       <c r="E237" t="s">
         <v>13</v>
@@ -8886,10 +8886,10 @@
         <v>11</v>
       </c>
       <c r="C242">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D242">
-        <v>840544</v>
+        <v>837639</v>
       </c>
       <c r="E242" t="s">
         <v>13</v>
@@ -8950,10 +8950,10 @@
         <v>11</v>
       </c>
       <c r="C244">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D244">
-        <v>348900</v>
+        <v>347219</v>
       </c>
       <c r="E244" t="s">
         <v>13</v>
@@ -9014,10 +9014,10 @@
         <v>11</v>
       </c>
       <c r="C246">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D246">
-        <v>777235</v>
+        <v>774235</v>
       </c>
       <c r="E246" t="s">
         <v>13</v>
@@ -9110,10 +9110,10 @@
         <v>11</v>
       </c>
       <c r="C249">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D249">
-        <v>1111716</v>
+        <v>1108716</v>
       </c>
       <c r="E249" t="s">
         <v>13</v>
@@ -9206,10 +9206,10 @@
         <v>11</v>
       </c>
       <c r="C252">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D252">
-        <v>174209</v>
+        <v>171209</v>
       </c>
       <c r="E252" t="s">
         <v>13</v>
@@ -9238,10 +9238,10 @@
         <v>11</v>
       </c>
       <c r="C253">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D253">
-        <v>388786</v>
+        <v>385786</v>
       </c>
       <c r="E253" t="s">
         <v>13</v>
@@ -9366,10 +9366,10 @@
         <v>11</v>
       </c>
       <c r="C257">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D257">
-        <v>301226</v>
+        <v>301112</v>
       </c>
       <c r="E257" t="s">
         <v>13</v>
@@ -9398,10 +9398,10 @@
         <v>11</v>
       </c>
       <c r="C258">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D258">
-        <v>1023909</v>
+        <v>1022379</v>
       </c>
       <c r="E258" t="s">
         <v>13</v>
@@ -9622,10 +9622,10 @@
         <v>11</v>
       </c>
       <c r="C265">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D265">
-        <v>884664</v>
+        <v>881664</v>
       </c>
       <c r="E265" t="s">
         <v>13</v>
@@ -9878,10 +9878,10 @@
         <v>11</v>
       </c>
       <c r="C273">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D273">
-        <v>217833</v>
+        <v>217023</v>
       </c>
       <c r="E273" t="s">
         <v>13</v>
@@ -9910,10 +9910,10 @@
         <v>11</v>
       </c>
       <c r="C274">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D274">
-        <v>815904</v>
+        <v>815260</v>
       </c>
       <c r="E274" t="s">
         <v>13</v>
@@ -9942,10 +9942,10 @@
         <v>11</v>
       </c>
       <c r="C275">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D275">
-        <v>585525</v>
+        <v>582645</v>
       </c>
       <c r="E275" t="s">
         <v>13</v>
@@ -9974,10 +9974,10 @@
         <v>11</v>
       </c>
       <c r="C276">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D276">
-        <v>611414</v>
+        <v>611109</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -10038,10 +10038,10 @@
         <v>11</v>
       </c>
       <c r="C278">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D278">
-        <v>1600404</v>
+        <v>1596884</v>
       </c>
       <c r="E278" t="s">
         <v>13</v>
@@ -10166,10 +10166,10 @@
         <v>11</v>
       </c>
       <c r="C282">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D282">
-        <v>158349</v>
+        <v>155349</v>
       </c>
       <c r="E282" t="s">
         <v>13</v>
@@ -10262,10 +10262,10 @@
         <v>11</v>
       </c>
       <c r="C285">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D285">
-        <v>849622</v>
+        <v>846622</v>
       </c>
       <c r="E285" t="s">
         <v>13</v>
@@ -10422,10 +10422,10 @@
         <v>11</v>
       </c>
       <c r="C290">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="D290">
-        <v>2325526</v>
+        <v>2324052</v>
       </c>
       <c r="E290" t="s">
         <v>13</v>
@@ -10550,10 +10550,10 @@
         <v>11</v>
       </c>
       <c r="C294">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D294">
-        <v>405631</v>
+        <v>402631</v>
       </c>
       <c r="E294" t="s">
         <v>13</v>
@@ -11094,10 +11094,10 @@
         <v>11</v>
       </c>
       <c r="C311">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D311">
-        <v>1543284</v>
+        <v>1540540</v>
       </c>
       <c r="E311" t="s">
         <v>13</v>
@@ -11318,10 +11318,10 @@
         <v>11</v>
       </c>
       <c r="C318">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D318">
-        <v>296020</v>
+        <v>293020</v>
       </c>
       <c r="E318" t="s">
         <v>13</v>
@@ -11382,10 +11382,10 @@
         <v>11</v>
       </c>
       <c r="C320">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D320">
-        <v>609871</v>
+        <v>606871</v>
       </c>
       <c r="E320" t="s">
         <v>13</v>
@@ -11510,10 +11510,10 @@
         <v>11</v>
       </c>
       <c r="C324">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D324">
-        <v>695771</v>
+        <v>693979</v>
       </c>
       <c r="E324" t="s">
         <v>14</v>
@@ -11606,10 +11606,10 @@
         <v>11</v>
       </c>
       <c r="C327">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D327">
-        <v>2967626</v>
+        <v>2966126</v>
       </c>
       <c r="E327" t="s">
         <v>14</v>
@@ -11894,10 +11894,10 @@
         <v>11</v>
       </c>
       <c r="C336">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D336">
-        <v>1419596</v>
+        <v>1414304</v>
       </c>
       <c r="E336" t="s">
         <v>14</v>
@@ -11958,10 +11958,10 @@
         <v>11</v>
       </c>
       <c r="C338">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D338">
-        <v>2147765</v>
+        <v>2146065</v>
       </c>
       <c r="E338" t="s">
         <v>14</v>
@@ -12118,10 +12118,10 @@
         <v>11</v>
       </c>
       <c r="C343">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="D343">
-        <v>2892136</v>
+        <v>2889136</v>
       </c>
       <c r="E343" t="s">
         <v>14</v>
@@ -12150,10 +12150,10 @@
         <v>11</v>
       </c>
       <c r="C344">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="D344">
-        <v>4091615</v>
+        <v>4088615</v>
       </c>
       <c r="E344" t="s">
         <v>14</v>
@@ -12214,10 +12214,10 @@
         <v>11</v>
       </c>
       <c r="C346">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="D346">
-        <v>3854337</v>
+        <v>3853592</v>
       </c>
       <c r="E346" t="s">
         <v>14</v>
@@ -12310,10 +12310,10 @@
         <v>11</v>
       </c>
       <c r="C349">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D349">
-        <v>692509</v>
+        <v>688578</v>
       </c>
       <c r="E349" t="s">
         <v>14</v>
@@ -12342,10 +12342,10 @@
         <v>11</v>
       </c>
       <c r="C350">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D350">
-        <v>1510983</v>
+        <v>1507983</v>
       </c>
       <c r="E350" t="s">
         <v>14</v>
@@ -12438,10 +12438,10 @@
         <v>11</v>
       </c>
       <c r="C353">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D353">
-        <v>2725118</v>
+        <v>2724708</v>
       </c>
       <c r="E353" t="s">
         <v>14</v>
@@ -12502,10 +12502,10 @@
         <v>11</v>
       </c>
       <c r="C355">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="D355">
-        <v>3344208</v>
+        <v>3343425</v>
       </c>
       <c r="E355" t="s">
         <v>14</v>
@@ -12566,10 +12566,10 @@
         <v>11</v>
       </c>
       <c r="C357">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D357">
-        <v>1034946</v>
+        <v>1033724</v>
       </c>
       <c r="E357" t="s">
         <v>14</v>
@@ -12886,10 +12886,10 @@
         <v>11</v>
       </c>
       <c r="C367">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="D367">
-        <v>2724170</v>
+        <v>2718743</v>
       </c>
       <c r="E367" t="s">
         <v>14</v>
@@ -12918,10 +12918,10 @@
         <v>11</v>
       </c>
       <c r="C368">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D368">
-        <v>823981</v>
+        <v>822983</v>
       </c>
       <c r="E368" t="s">
         <v>14</v>
@@ -12950,10 +12950,10 @@
         <v>11</v>
       </c>
       <c r="C369">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D369">
-        <v>1133099</v>
+        <v>1130025</v>
       </c>
       <c r="E369" t="s">
         <v>14</v>
@@ -12982,10 +12982,10 @@
         <v>11</v>
       </c>
       <c r="C370">
-        <v>2876</v>
+        <v>2872</v>
       </c>
       <c r="D370">
-        <v>3954100</v>
+        <v>3948100</v>
       </c>
       <c r="E370" t="s">
         <v>14</v>
@@ -13014,10 +13014,10 @@
         <v>11</v>
       </c>
       <c r="C371">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D371">
-        <v>1059899</v>
+        <v>1057678</v>
       </c>
       <c r="E371" t="s">
         <v>14</v>
@@ -13046,10 +13046,10 @@
         <v>11</v>
       </c>
       <c r="C372">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="D372">
-        <v>3759201</v>
+        <v>3758543</v>
       </c>
       <c r="E372" t="s">
         <v>14</v>
@@ -13078,10 +13078,10 @@
         <v>11</v>
       </c>
       <c r="C373">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D373">
-        <v>567921</v>
+        <v>564921</v>
       </c>
       <c r="E373" t="s">
         <v>14</v>
@@ -13206,10 +13206,10 @@
         <v>11</v>
       </c>
       <c r="C377">
-        <v>2865</v>
+        <v>2861</v>
       </c>
       <c r="D377">
-        <v>3885960</v>
+        <v>3881639</v>
       </c>
       <c r="E377" t="s">
         <v>14</v>
@@ -13238,10 +13238,10 @@
         <v>11</v>
       </c>
       <c r="C378">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D378">
-        <v>328736</v>
+        <v>328202</v>
       </c>
       <c r="E378" t="s">
         <v>14</v>
@@ -13302,10 +13302,10 @@
         <v>11</v>
       </c>
       <c r="C380">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D380">
-        <v>305202</v>
+        <v>303692</v>
       </c>
       <c r="E380" t="s">
         <v>14</v>
@@ -13366,10 +13366,10 @@
         <v>11</v>
       </c>
       <c r="C382">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D382">
-        <v>681369</v>
+        <v>678369</v>
       </c>
       <c r="E382" t="s">
         <v>14</v>
@@ -13398,10 +13398,10 @@
         <v>11</v>
       </c>
       <c r="C383">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D383">
-        <v>1763480</v>
+        <v>1760828</v>
       </c>
       <c r="E383" t="s">
         <v>14</v>
@@ -13494,10 +13494,10 @@
         <v>11</v>
       </c>
       <c r="C386">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="D386">
-        <v>2738980</v>
+        <v>2735980</v>
       </c>
       <c r="E386" t="s">
         <v>14</v>
@@ -13558,10 +13558,10 @@
         <v>11</v>
       </c>
       <c r="C388">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="D388">
-        <v>2970211</v>
+        <v>2968519</v>
       </c>
       <c r="E388" t="s">
         <v>14</v>
@@ -13686,10 +13686,10 @@
         <v>11</v>
       </c>
       <c r="C392">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D392">
-        <v>921421</v>
+        <v>918421</v>
       </c>
       <c r="E392" t="s">
         <v>15</v>
@@ -13878,10 +13878,10 @@
         <v>11</v>
       </c>
       <c r="C398">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D398">
-        <v>151747</v>
+        <v>148747</v>
       </c>
       <c r="E398" t="s">
         <v>15</v>
@@ -13974,10 +13974,10 @@
         <v>11</v>
       </c>
       <c r="C401">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D401">
-        <v>272626</v>
+        <v>271724</v>
       </c>
       <c r="E401" t="s">
         <v>15</v>
@@ -14998,10 +14998,10 @@
         <v>11</v>
       </c>
       <c r="C433">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D433">
-        <v>208259</v>
+        <v>206539</v>
       </c>
       <c r="E433" t="s">
         <v>15</v>
@@ -15094,10 +15094,10 @@
         <v>11</v>
       </c>
       <c r="C436">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D436">
-        <v>810716</v>
+        <v>809616</v>
       </c>
       <c r="E436" t="s">
         <v>15</v>
@@ -15254,10 +15254,10 @@
         <v>11</v>
       </c>
       <c r="C441">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="D441">
-        <v>2522397</v>
+        <v>2521757</v>
       </c>
       <c r="E441" t="s">
         <v>15</v>
@@ -15478,10 +15478,10 @@
         <v>11</v>
       </c>
       <c r="C448">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D448">
-        <v>545885</v>
+        <v>544106</v>
       </c>
       <c r="E448" t="s">
         <v>15</v>
@@ -15542,10 +15542,10 @@
         <v>11</v>
       </c>
       <c r="C450">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="D450">
-        <v>1851691</v>
+        <v>1847101</v>
       </c>
       <c r="E450" t="s">
         <v>15</v>
@@ -15606,10 +15606,10 @@
         <v>11</v>
       </c>
       <c r="C452">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D452">
-        <v>2481971</v>
+        <v>2481781</v>
       </c>
       <c r="E452" t="s">
         <v>15</v>
@@ -15670,10 +15670,10 @@
         <v>11</v>
       </c>
       <c r="C454">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D454">
-        <v>341285</v>
+        <v>338285</v>
       </c>
       <c r="E454" t="s">
         <v>15</v>
@@ -15766,10 +15766,10 @@
         <v>11</v>
       </c>
       <c r="C457">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D457">
-        <v>1550895</v>
+        <v>1548980</v>
       </c>
       <c r="E457" t="s">
         <v>15</v>
@@ -16470,10 +16470,10 @@
         <v>11</v>
       </c>
       <c r="C479">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D479">
-        <v>1189479</v>
+        <v>1186479</v>
       </c>
       <c r="E479" t="s">
         <v>15</v>
@@ -16566,10 +16566,10 @@
         <v>11</v>
       </c>
       <c r="C482">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D482">
-        <v>1449939</v>
+        <v>1443939</v>
       </c>
       <c r="E482" t="s">
         <v>15</v>
@@ -16598,10 +16598,10 @@
         <v>11</v>
       </c>
       <c r="C483">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D483">
-        <v>652130</v>
+        <v>651630</v>
       </c>
       <c r="E483" t="s">
         <v>15</v>
@@ -16630,10 +16630,10 @@
         <v>11</v>
       </c>
       <c r="C484">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D484">
-        <v>2516268</v>
+        <v>2515374</v>
       </c>
       <c r="E484" t="s">
         <v>15</v>
@@ -16662,10 +16662,10 @@
         <v>11</v>
       </c>
       <c r="C485">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D485">
-        <v>535025</v>
+        <v>523025</v>
       </c>
       <c r="E485" t="s">
         <v>16</v>
@@ -16694,10 +16694,10 @@
         <v>11</v>
       </c>
       <c r="C486">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D486">
-        <v>415954</v>
+        <v>408454</v>
       </c>
       <c r="E486" t="s">
         <v>16</v>
@@ -16726,10 +16726,10 @@
         <v>11</v>
       </c>
       <c r="C487">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="D487">
-        <v>1396783</v>
+        <v>1383283</v>
       </c>
       <c r="E487" t="s">
         <v>16</v>
@@ -16758,10 +16758,10 @@
         <v>11</v>
       </c>
       <c r="C488">
-        <v>874</v>
+        <v>850</v>
       </c>
       <c r="D488">
-        <v>1196931</v>
+        <v>1162363</v>
       </c>
       <c r="E488" t="s">
         <v>16</v>
@@ -16790,10 +16790,10 @@
         <v>11</v>
       </c>
       <c r="C489">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D489">
-        <v>167562</v>
+        <v>164562</v>
       </c>
       <c r="E489" t="s">
         <v>16</v>
@@ -16822,10 +16822,10 @@
         <v>11</v>
       </c>
       <c r="C490">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="D490">
-        <v>1189964</v>
+        <v>1165964</v>
       </c>
       <c r="E490" t="s">
         <v>16</v>
@@ -16854,10 +16854,10 @@
         <v>11</v>
       </c>
       <c r="C491">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D491">
-        <v>86337</v>
+        <v>83337</v>
       </c>
       <c r="E491" t="s">
         <v>16</v>
@@ -16918,10 +16918,10 @@
         <v>11</v>
       </c>
       <c r="C493">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D493">
-        <v>289159</v>
+        <v>286159</v>
       </c>
       <c r="E493" t="s">
         <v>16</v>
@@ -16950,10 +16950,10 @@
         <v>11</v>
       </c>
       <c r="C494">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="D494">
-        <v>910614</v>
+        <v>890816</v>
       </c>
       <c r="E494" t="s">
         <v>16</v>
@@ -16982,10 +16982,10 @@
         <v>11</v>
       </c>
       <c r="C495">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D495">
-        <v>533290</v>
+        <v>511304</v>
       </c>
       <c r="E495" t="s">
         <v>16</v>
@@ -17014,10 +17014,10 @@
         <v>11</v>
       </c>
       <c r="C496">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D496">
-        <v>276192</v>
+        <v>275716</v>
       </c>
       <c r="E496" t="s">
         <v>16</v>
@@ -17046,10 +17046,10 @@
         <v>11</v>
       </c>
       <c r="C497">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D497">
-        <v>503829</v>
+        <v>495355</v>
       </c>
       <c r="E497" t="s">
         <v>16</v>
@@ -17078,10 +17078,10 @@
         <v>11</v>
       </c>
       <c r="C498">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D498">
-        <v>230779</v>
+        <v>222276</v>
       </c>
       <c r="E498" t="s">
         <v>16</v>
@@ -17110,10 +17110,10 @@
         <v>11</v>
       </c>
       <c r="C499">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D499">
-        <v>767492</v>
+        <v>757302</v>
       </c>
       <c r="E499" t="s">
         <v>16</v>
@@ -17270,10 +17270,10 @@
         <v>11</v>
       </c>
       <c r="C504">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D504">
-        <v>1562864</v>
+        <v>1562203</v>
       </c>
       <c r="E504" t="s">
         <v>16</v>
@@ -17462,10 +17462,10 @@
         <v>11</v>
       </c>
       <c r="C510">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D510">
-        <v>894638</v>
+        <v>893638</v>
       </c>
       <c r="E510" t="s">
         <v>16</v>
@@ -18582,10 +18582,10 @@
         <v>11</v>
       </c>
       <c r="C545">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D545">
-        <v>632932</v>
+        <v>632137</v>
       </c>
       <c r="E545" t="s">
         <v>17</v>
@@ -18934,10 +18934,10 @@
         <v>11</v>
       </c>
       <c r="C556">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D556">
-        <v>575957</v>
+        <v>572957</v>
       </c>
       <c r="E556" t="s">
         <v>17</v>
@@ -19030,10 +19030,10 @@
         <v>11</v>
       </c>
       <c r="C559">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="D559">
-        <v>2900758</v>
+        <v>2897758</v>
       </c>
       <c r="E559" t="s">
         <v>17</v>
@@ -19062,10 +19062,10 @@
         <v>11</v>
       </c>
       <c r="C560">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D560">
-        <v>1162840</v>
+        <v>1159840</v>
       </c>
       <c r="E560" t="s">
         <v>17</v>
@@ -19126,10 +19126,10 @@
         <v>11</v>
       </c>
       <c r="C562">
-        <v>2564</v>
+        <v>2554</v>
       </c>
       <c r="D562">
-        <v>3556340</v>
+        <v>3545594</v>
       </c>
       <c r="E562" t="s">
         <v>17</v>
@@ -19158,10 +19158,10 @@
         <v>11</v>
       </c>
       <c r="C563">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D563">
-        <v>1237772</v>
+        <v>1234772</v>
       </c>
       <c r="E563" t="s">
         <v>17</v>
@@ -19190,10 +19190,10 @@
         <v>11</v>
       </c>
       <c r="C564">
-        <v>3362</v>
+        <v>3360</v>
       </c>
       <c r="D564">
-        <v>4153921</v>
+        <v>4153775</v>
       </c>
       <c r="E564" t="s">
         <v>17</v>
@@ -19446,10 +19446,10 @@
         <v>11</v>
       </c>
       <c r="C572">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D572">
-        <v>234555</v>
+        <v>234145</v>
       </c>
       <c r="E572" t="s">
         <v>17</v>
@@ -19510,10 +19510,10 @@
         <v>11</v>
       </c>
       <c r="C574">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D574">
-        <v>432162</v>
+        <v>427373</v>
       </c>
       <c r="E574" t="s">
         <v>17</v>
@@ -19542,10 +19542,10 @@
         <v>11</v>
       </c>
       <c r="C575">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D575">
-        <v>1553191</v>
+        <v>1548178</v>
       </c>
       <c r="E575" t="s">
         <v>17</v>
@@ -19638,10 +19638,10 @@
         <v>11</v>
       </c>
       <c r="C578">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="D578">
-        <v>1754143</v>
+        <v>1753855</v>
       </c>
       <c r="E578" t="s">
         <v>17</v>
@@ -19670,10 +19670,10 @@
         <v>11</v>
       </c>
       <c r="C579">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D579">
-        <v>544620</v>
+        <v>543028</v>
       </c>
       <c r="E579" t="s">
         <v>17</v>
@@ -19702,10 +19702,10 @@
         <v>11</v>
       </c>
       <c r="C580">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="D580">
-        <v>2929815</v>
+        <v>2929385</v>
       </c>
       <c r="E580" t="s">
         <v>17</v>
@@ -20246,10 +20246,10 @@
         <v>11</v>
       </c>
       <c r="C597">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D597">
-        <v>439604</v>
+        <v>438827</v>
       </c>
       <c r="E597" t="s">
         <v>17</v>
@@ -20534,10 +20534,10 @@
         <v>11</v>
       </c>
       <c r="C606">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D606">
-        <v>268536</v>
+        <v>265682</v>
       </c>
       <c r="E606" t="s">
         <v>17</v>
@@ -20598,10 +20598,10 @@
         <v>11</v>
       </c>
       <c r="C608">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D608">
-        <v>450368</v>
+        <v>447368</v>
       </c>
       <c r="E608" t="s">
         <v>17</v>
@@ -20662,10 +20662,10 @@
         <v>11</v>
       </c>
       <c r="C610">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D610">
-        <v>1417673</v>
+        <v>1416493</v>
       </c>
       <c r="E610" t="s">
         <v>17</v>
@@ -20694,10 +20694,10 @@
         <v>11</v>
       </c>
       <c r="C611">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D611">
-        <v>473814</v>
+        <v>473285</v>
       </c>
       <c r="E611" t="s">
         <v>17</v>
@@ -20726,10 +20726,10 @@
         <v>11</v>
       </c>
       <c r="C612">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="D612">
-        <v>2184316</v>
+        <v>2184154</v>
       </c>
       <c r="E612" t="s">
         <v>17</v>
@@ -20886,10 +20886,10 @@
         <v>11</v>
       </c>
       <c r="C617">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="D617">
-        <v>3006769</v>
+        <v>3000769</v>
       </c>
       <c r="E617" t="s">
         <v>17</v>
@@ -20950,10 +20950,10 @@
         <v>11</v>
       </c>
       <c r="C619">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="D619">
-        <v>1942517</v>
+        <v>1939935</v>
       </c>
       <c r="E619" t="s">
         <v>17</v>
@@ -21142,10 +21142,10 @@
         <v>11</v>
       </c>
       <c r="C625">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D625">
-        <v>781696</v>
+        <v>780496</v>
       </c>
       <c r="E625" t="s">
         <v>17</v>
@@ -21174,10 +21174,10 @@
         <v>11</v>
       </c>
       <c r="C626">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D626">
-        <v>1558926</v>
+        <v>1557799</v>
       </c>
       <c r="E626" t="s">
         <v>17</v>
@@ -21238,10 +21238,10 @@
         <v>11</v>
       </c>
       <c r="C628">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="D628">
-        <v>2517181</v>
+        <v>2516150</v>
       </c>
       <c r="E628" t="s">
         <v>17</v>
@@ -21398,10 +21398,10 @@
         <v>11</v>
       </c>
       <c r="C633">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D633">
-        <v>697535</v>
+        <v>697339</v>
       </c>
       <c r="E633" t="s">
         <v>17</v>
@@ -21654,10 +21654,10 @@
         <v>11</v>
       </c>
       <c r="C641">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D641">
-        <v>104226</v>
+        <v>103846</v>
       </c>
       <c r="E641" t="s">
         <v>17</v>
@@ -21878,10 +21878,10 @@
         <v>11</v>
       </c>
       <c r="C648">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="D648">
-        <v>3355539</v>
+        <v>3352539</v>
       </c>
       <c r="E648" t="s">
         <v>17</v>
@@ -22070,10 +22070,10 @@
         <v>11</v>
       </c>
       <c r="C654">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D654">
-        <v>326826</v>
+        <v>323844</v>
       </c>
       <c r="E654" t="s">
         <v>17</v>
@@ -22102,10 +22102,10 @@
         <v>11</v>
       </c>
       <c r="C655">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D655">
-        <v>1543957</v>
+        <v>1542893</v>
       </c>
       <c r="E655" t="s">
         <v>17</v>
@@ -22166,10 +22166,10 @@
         <v>11</v>
       </c>
       <c r="C657">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D657">
-        <v>905505</v>
+        <v>904745</v>
       </c>
       <c r="E657" t="s">
         <v>17</v>
@@ -22230,10 +22230,10 @@
         <v>11</v>
       </c>
       <c r="C659">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D659">
-        <v>630977</v>
+        <v>630916</v>
       </c>
       <c r="E659" t="s">
         <v>17</v>
@@ -22262,10 +22262,10 @@
         <v>11</v>
       </c>
       <c r="C660">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="D660">
-        <v>3913289</v>
+        <v>3913025</v>
       </c>
       <c r="E660" t="s">
         <v>17</v>
@@ -22678,10 +22678,10 @@
         <v>11</v>
       </c>
       <c r="C673">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D673">
-        <v>451272</v>
+        <v>450791</v>
       </c>
       <c r="E673" t="s">
         <v>17</v>
@@ -22774,10 +22774,10 @@
         <v>11</v>
       </c>
       <c r="C676">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D676">
-        <v>1614534</v>
+        <v>1611534</v>
       </c>
       <c r="E676" t="s">
         <v>17</v>
@@ -23766,10 +23766,10 @@
         <v>11</v>
       </c>
       <c r="C707">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D707">
-        <v>220098</v>
+        <v>217858</v>
       </c>
       <c r="E707" t="s">
         <v>19</v>
@@ -23990,10 +23990,10 @@
         <v>11</v>
       </c>
       <c r="C714">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="D714">
-        <v>1975678</v>
+        <v>1975390</v>
       </c>
       <c r="E714" t="s">
         <v>20</v>
@@ -24278,10 +24278,10 @@
         <v>11</v>
       </c>
       <c r="C723">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D723">
-        <v>687811</v>
+        <v>687659</v>
       </c>
       <c r="E723" t="s">
         <v>20</v>
@@ -24470,10 +24470,10 @@
         <v>11</v>
       </c>
       <c r="C729">
-        <v>4327</v>
+        <v>4325</v>
       </c>
       <c r="D729">
-        <v>6149828</v>
+        <v>6148110</v>
       </c>
       <c r="E729" t="s">
         <v>20</v>
@@ -24502,10 +24502,10 @@
         <v>11</v>
       </c>
       <c r="C730">
-        <v>8056</v>
+        <v>8052</v>
       </c>
       <c r="D730">
-        <v>10350408</v>
+        <v>10349066</v>
       </c>
       <c r="E730" t="s">
         <v>20</v>
@@ -24534,10 +24534,10 @@
         <v>11</v>
       </c>
       <c r="C731">
-        <v>2033</v>
+        <v>2023</v>
       </c>
       <c r="D731">
-        <v>2738492</v>
+        <v>2724657</v>
       </c>
       <c r="E731" t="s">
         <v>20</v>
@@ -24662,10 +24662,10 @@
         <v>11</v>
       </c>
       <c r="C735">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D735">
-        <v>1057257</v>
+        <v>1054257</v>
       </c>
       <c r="E735" t="s">
         <v>20</v>
@@ -24694,10 +24694,10 @@
         <v>11</v>
       </c>
       <c r="C736">
-        <v>4155</v>
+        <v>4144</v>
       </c>
       <c r="D736">
-        <v>5648556</v>
+        <v>5636558</v>
       </c>
       <c r="E736" t="s">
         <v>20</v>
@@ -24726,10 +24726,10 @@
         <v>11</v>
       </c>
       <c r="C737">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D737">
-        <v>2065947</v>
+        <v>2065570</v>
       </c>
       <c r="E737" t="s">
         <v>20</v>
@@ -24758,10 +24758,10 @@
         <v>11</v>
       </c>
       <c r="C738">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="D738">
-        <v>2243607</v>
+        <v>2237777</v>
       </c>
       <c r="E738" t="s">
         <v>20</v>
@@ -24790,10 +24790,10 @@
         <v>11</v>
       </c>
       <c r="C739">
-        <v>5033</v>
+        <v>5027</v>
       </c>
       <c r="D739">
-        <v>6894584</v>
+        <v>6888500</v>
       </c>
       <c r="E739" t="s">
         <v>20</v>
@@ -24822,10 +24822,10 @@
         <v>11</v>
       </c>
       <c r="C740">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D740">
-        <v>2081462</v>
+        <v>2080652</v>
       </c>
       <c r="E740" t="s">
         <v>20</v>
@@ -24854,10 +24854,10 @@
         <v>11</v>
       </c>
       <c r="C741">
-        <v>7084</v>
+        <v>7078</v>
       </c>
       <c r="D741">
-        <v>8441968</v>
+        <v>8435918</v>
       </c>
       <c r="E741" t="s">
         <v>20</v>
@@ -25014,10 +25014,10 @@
         <v>11</v>
       </c>
       <c r="C746">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="D746">
-        <v>2577463</v>
+        <v>2573511</v>
       </c>
       <c r="E746" t="s">
         <v>20</v>
@@ -25046,10 +25046,10 @@
         <v>11</v>
       </c>
       <c r="C747">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="D747">
-        <v>3377524</v>
+        <v>3375554</v>
       </c>
       <c r="E747" t="s">
         <v>20</v>
@@ -25078,10 +25078,10 @@
         <v>11</v>
       </c>
       <c r="C748">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D748">
-        <v>1602271</v>
+        <v>1599271</v>
       </c>
       <c r="E748" t="s">
         <v>20</v>
@@ -25142,10 +25142,10 @@
         <v>11</v>
       </c>
       <c r="C750">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D750">
-        <v>270004</v>
+        <v>267004</v>
       </c>
       <c r="E750" t="s">
         <v>20</v>
@@ -25238,10 +25238,10 @@
         <v>11</v>
       </c>
       <c r="C753">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D753">
-        <v>1411238</v>
+        <v>1408238</v>
       </c>
       <c r="E753" t="s">
         <v>20</v>
@@ -25302,10 +25302,10 @@
         <v>11</v>
       </c>
       <c r="C755">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D755">
-        <v>919739</v>
+        <v>918699</v>
       </c>
       <c r="E755" t="s">
         <v>20</v>
@@ -25334,10 +25334,10 @@
         <v>11</v>
       </c>
       <c r="C756">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="D756">
-        <v>1548157</v>
+        <v>1544197</v>
       </c>
       <c r="E756" t="s">
         <v>20</v>
@@ -25366,10 +25366,10 @@
         <v>11</v>
       </c>
       <c r="C757">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D757">
-        <v>701513</v>
+        <v>699857</v>
       </c>
       <c r="E757" t="s">
         <v>20</v>
@@ -25398,10 +25398,10 @@
         <v>11</v>
       </c>
       <c r="C758">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="D758">
-        <v>2935976</v>
+        <v>2934185</v>
       </c>
       <c r="E758" t="s">
         <v>20</v>
@@ -25590,10 +25590,10 @@
         <v>11</v>
       </c>
       <c r="C764">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="D764">
-        <v>3800420</v>
+        <v>3798570</v>
       </c>
       <c r="E764" t="s">
         <v>20</v>
@@ -25782,10 +25782,10 @@
         <v>11</v>
       </c>
       <c r="C770">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D770">
-        <v>617833</v>
+        <v>614833</v>
       </c>
       <c r="E770" t="s">
         <v>20</v>
@@ -25814,10 +25814,10 @@
         <v>11</v>
       </c>
       <c r="C771">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="D771">
-        <v>1922980</v>
+        <v>1918830</v>
       </c>
       <c r="E771" t="s">
         <v>20</v>
@@ -25846,10 +25846,10 @@
         <v>11</v>
       </c>
       <c r="C772">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D772">
-        <v>988114</v>
+        <v>985114</v>
       </c>
       <c r="E772" t="s">
         <v>20</v>
@@ -25910,10 +25910,10 @@
         <v>11</v>
       </c>
       <c r="C774">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="D774">
-        <v>2798677</v>
+        <v>2797847</v>
       </c>
       <c r="E774" t="s">
         <v>20</v>
@@ -25942,10 +25942,10 @@
         <v>11</v>
       </c>
       <c r="C775">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="D775">
-        <v>856953</v>
+        <v>853340</v>
       </c>
       <c r="E775" t="s">
         <v>20</v>
@@ -25974,10 +25974,10 @@
         <v>11</v>
       </c>
       <c r="C776">
-        <v>4661</v>
+        <v>4659</v>
       </c>
       <c r="D776">
-        <v>5367617</v>
+        <v>5367007</v>
       </c>
       <c r="E776" t="s">
         <v>20</v>
@@ -26358,10 +26358,10 @@
         <v>11</v>
       </c>
       <c r="C788">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D788">
-        <v>418784</v>
+        <v>417812</v>
       </c>
       <c r="E788" t="s">
         <v>20</v>
@@ -26486,10 +26486,10 @@
         <v>11</v>
       </c>
       <c r="C792">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D792">
-        <v>1921280</v>
+        <v>1919956</v>
       </c>
       <c r="E792" t="s">
         <v>20</v>
@@ -26806,10 +26806,10 @@
         <v>11</v>
       </c>
       <c r="C802">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D802">
-        <v>484581</v>
+        <v>483081</v>
       </c>
       <c r="E802" t="s">
         <v>21</v>
@@ -26902,10 +26902,10 @@
         <v>11</v>
       </c>
       <c r="C805">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="D805">
-        <v>2414521</v>
+        <v>2409511</v>
       </c>
       <c r="E805" t="s">
         <v>21</v>
@@ -26966,10 +26966,10 @@
         <v>11</v>
       </c>
       <c r="C807">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="D807">
-        <v>1941414</v>
+        <v>1936902</v>
       </c>
       <c r="E807" t="s">
         <v>21</v>
@@ -26998,10 +26998,10 @@
         <v>11</v>
       </c>
       <c r="C808">
-        <v>2124</v>
+        <v>2116</v>
       </c>
       <c r="D808">
-        <v>2998626</v>
+        <v>2986761</v>
       </c>
       <c r="E808" t="s">
         <v>21</v>
@@ -27030,10 +27030,10 @@
         <v>11</v>
       </c>
       <c r="C809">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D809">
-        <v>1071026</v>
+        <v>1069676</v>
       </c>
       <c r="E809" t="s">
         <v>21</v>
@@ -27318,10 +27318,10 @@
         <v>11</v>
       </c>
       <c r="C818">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D818">
-        <v>201482</v>
+        <v>201382</v>
       </c>
       <c r="E818" t="s">
         <v>22</v>
@@ -27478,10 +27478,10 @@
         <v>11</v>
       </c>
       <c r="C823">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D823">
-        <v>597467</v>
+        <v>594467</v>
       </c>
       <c r="E823" t="s">
         <v>22</v>
@@ -27542,10 +27542,10 @@
         <v>11</v>
       </c>
       <c r="C825">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D825">
-        <v>380613</v>
+        <v>380415</v>
       </c>
       <c r="E825" t="s">
         <v>22</v>
@@ -27606,10 +27606,10 @@
         <v>11</v>
       </c>
       <c r="C827">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D827">
-        <v>123364</v>
+        <v>120364</v>
       </c>
       <c r="E827" t="s">
         <v>23</v>
@@ -27638,10 +27638,10 @@
         <v>11</v>
       </c>
       <c r="C828">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D828">
-        <v>116624</v>
+        <v>113624</v>
       </c>
       <c r="E828" t="s">
         <v>23</v>
@@ -27702,10 +27702,10 @@
         <v>11</v>
       </c>
       <c r="C830">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D830">
-        <v>300741</v>
+        <v>297741</v>
       </c>
       <c r="E830" t="s">
         <v>23</v>
@@ -27734,10 +27734,10 @@
         <v>11</v>
       </c>
       <c r="C831">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D831">
-        <v>725246</v>
+        <v>719636</v>
       </c>
       <c r="E831" t="s">
         <v>23</v>
@@ -27766,10 +27766,10 @@
         <v>11</v>
       </c>
       <c r="C832">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D832">
-        <v>207059</v>
+        <v>201059</v>
       </c>
       <c r="E832" t="s">
         <v>23</v>
@@ -27798,10 +27798,10 @@
         <v>11</v>
       </c>
       <c r="C833">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D833">
-        <v>224291</v>
+        <v>221291</v>
       </c>
       <c r="E833" t="s">
         <v>23</v>
@@ -28118,10 +28118,10 @@
         <v>11</v>
       </c>
       <c r="C843">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D843">
-        <v>696401</v>
+        <v>696067</v>
       </c>
       <c r="E843" t="s">
         <v>24</v>
@@ -28182,10 +28182,10 @@
         <v>11</v>
       </c>
       <c r="C845">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D845">
-        <v>2466076</v>
+        <v>2464076</v>
       </c>
       <c r="E845" t="s">
         <v>24</v>
@@ -28214,10 +28214,10 @@
         <v>11</v>
       </c>
       <c r="C846">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="D846">
-        <v>4210801</v>
+        <v>4209543</v>
       </c>
       <c r="E846" t="s">
         <v>24</v>
@@ -28246,10 +28246,10 @@
         <v>11</v>
       </c>
       <c r="C847">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D847">
-        <v>385408</v>
+        <v>382408</v>
       </c>
       <c r="E847" t="s">
         <v>24</v>
@@ -28278,10 +28278,10 @@
         <v>11</v>
       </c>
       <c r="C848">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D848">
-        <v>3081882</v>
+        <v>3081424</v>
       </c>
       <c r="E848" t="s">
         <v>24</v>
@@ -28438,10 +28438,10 @@
         <v>11</v>
       </c>
       <c r="C853">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D853">
-        <v>740969</v>
+        <v>739123</v>
       </c>
       <c r="E853" t="s">
         <v>24</v>
@@ -28470,10 +28470,10 @@
         <v>11</v>
       </c>
       <c r="C854">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D854">
-        <v>813457</v>
+        <v>808960</v>
       </c>
       <c r="E854" t="s">
         <v>24</v>
@@ -28566,10 +28566,10 @@
         <v>11</v>
       </c>
       <c r="C857">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="D857">
-        <v>3176066</v>
+        <v>3172967</v>
       </c>
       <c r="E857" t="s">
         <v>24</v>
@@ -28726,10 +28726,10 @@
         <v>11</v>
       </c>
       <c r="C862">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="D862">
-        <v>2715692</v>
+        <v>2712692</v>
       </c>
       <c r="E862" t="s">
         <v>24</v>
@@ -29014,10 +29014,10 @@
         <v>11</v>
       </c>
       <c r="C871">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D871">
-        <v>1027597</v>
+        <v>1023594</v>
       </c>
       <c r="E871" t="s">
         <v>24</v>
@@ -29078,10 +29078,10 @@
         <v>11</v>
       </c>
       <c r="C873">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="D873">
-        <v>2360611</v>
+        <v>2357611</v>
       </c>
       <c r="E873" t="s">
         <v>24</v>
@@ -29238,10 +29238,10 @@
         <v>11</v>
       </c>
       <c r="C878">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="D878">
-        <v>2719205</v>
+        <v>2713205</v>
       </c>
       <c r="E878" t="s">
         <v>24</v>
@@ -29302,10 +29302,10 @@
         <v>11</v>
       </c>
       <c r="C880">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="D880">
-        <v>2057684</v>
+        <v>2056359</v>
       </c>
       <c r="E880" t="s">
         <v>24</v>
@@ -29430,10 +29430,10 @@
         <v>11</v>
       </c>
       <c r="C884">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D884">
-        <v>677508</v>
+        <v>674508</v>
       </c>
       <c r="E884" t="s">
         <v>24</v>
@@ -29462,10 +29462,10 @@
         <v>11</v>
       </c>
       <c r="C885">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D885">
-        <v>384820</v>
+        <v>384218</v>
       </c>
       <c r="E885" t="s">
         <v>24</v>
@@ -29494,10 +29494,10 @@
         <v>11</v>
       </c>
       <c r="C886">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D886">
-        <v>421379</v>
+        <v>420744</v>
       </c>
       <c r="E886" t="s">
         <v>24</v>
@@ -29526,10 +29526,10 @@
         <v>11</v>
       </c>
       <c r="C887">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D887">
-        <v>1007863</v>
+        <v>1004863</v>
       </c>
       <c r="E887" t="s">
         <v>24</v>
@@ -29590,10 +29590,10 @@
         <v>11</v>
       </c>
       <c r="C889">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="D889">
-        <v>1943366</v>
+        <v>1942656</v>
       </c>
       <c r="E889" t="s">
         <v>24</v>
@@ -29846,10 +29846,10 @@
         <v>11</v>
       </c>
       <c r="C897">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D897">
-        <v>62624</v>
+        <v>59624</v>
       </c>
       <c r="E897" t="s">
         <v>24</v>
@@ -30134,10 +30134,10 @@
         <v>11</v>
       </c>
       <c r="C906">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D906">
-        <v>304694</v>
+        <v>301694</v>
       </c>
       <c r="E906" t="s">
         <v>24</v>
@@ -30326,10 +30326,10 @@
         <v>11</v>
       </c>
       <c r="C912">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="D912">
-        <v>3641581</v>
+        <v>3638101</v>
       </c>
       <c r="E912" t="s">
         <v>24</v>
@@ -30454,10 +30454,10 @@
         <v>11</v>
       </c>
       <c r="C916">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="D916">
-        <v>2283303</v>
+        <v>2274417</v>
       </c>
       <c r="E916" t="s">
         <v>24</v>
@@ -30518,10 +30518,10 @@
         <v>11</v>
       </c>
       <c r="C918">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D918">
-        <v>976937</v>
+        <v>976230</v>
       </c>
       <c r="E918" t="s">
         <v>24</v>
@@ -30550,10 +30550,10 @@
         <v>11</v>
       </c>
       <c r="C919">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="D919">
-        <v>2554536</v>
+        <v>2545536</v>
       </c>
       <c r="E919" t="s">
         <v>24</v>
@@ -30582,10 +30582,10 @@
         <v>11</v>
       </c>
       <c r="C920">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D920">
-        <v>910364</v>
+        <v>908335</v>
       </c>
       <c r="E920" t="s">
         <v>24</v>
@@ -31062,10 +31062,10 @@
         <v>11</v>
       </c>
       <c r="C935">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D935">
-        <v>735855</v>
+        <v>732595</v>
       </c>
       <c r="E935" t="s">
         <v>25</v>
@@ -31350,10 +31350,10 @@
         <v>11</v>
       </c>
       <c r="C944">
-        <v>3859</v>
+        <v>3855</v>
       </c>
       <c r="D944">
-        <v>5193268</v>
+        <v>5191307</v>
       </c>
       <c r="E944" t="s">
         <v>25</v>
@@ -31574,10 +31574,10 @@
         <v>11</v>
       </c>
       <c r="C951">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D951">
-        <v>929241</v>
+        <v>928041</v>
       </c>
       <c r="E951" t="s">
         <v>25</v>
@@ -31606,10 +31606,10 @@
         <v>11</v>
       </c>
       <c r="C952">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D952">
-        <v>1012116</v>
+        <v>1006822</v>
       </c>
       <c r="E952" t="s">
         <v>25</v>
@@ -31638,10 +31638,10 @@
         <v>11</v>
       </c>
       <c r="C953">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="D953">
-        <v>2487418</v>
+        <v>2484418</v>
       </c>
       <c r="E953" t="s">
         <v>25</v>
@@ -31670,10 +31670,10 @@
         <v>11</v>
       </c>
       <c r="C954">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D954">
-        <v>980528</v>
+        <v>977628</v>
       </c>
       <c r="E954" t="s">
         <v>25</v>
@@ -31702,10 +31702,10 @@
         <v>11</v>
       </c>
       <c r="C955">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="D955">
-        <v>3335572</v>
+        <v>3333162</v>
       </c>
       <c r="E955" t="s">
         <v>25</v>
@@ -32054,10 +32054,10 @@
         <v>11</v>
       </c>
       <c r="C966">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D966">
-        <v>436196</v>
+        <v>433726</v>
       </c>
       <c r="E966" t="s">
         <v>25</v>
@@ -32182,10 +32182,10 @@
         <v>11</v>
       </c>
       <c r="C970">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D970">
-        <v>226806</v>
+        <v>225916</v>
       </c>
       <c r="E970" t="s">
         <v>25</v>
@@ -32374,10 +32374,10 @@
         <v>11</v>
       </c>
       <c r="C976">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D976">
-        <v>426851</v>
+        <v>426059</v>
       </c>
       <c r="E976" t="s">
         <v>25</v>
@@ -32630,10 +32630,10 @@
         <v>11</v>
       </c>
       <c r="C984">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D984">
-        <v>92821</v>
+        <v>92321</v>
       </c>
       <c r="E984" t="s">
         <v>25</v>
@@ -32854,10 +32854,10 @@
         <v>11</v>
       </c>
       <c r="C991">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D991">
-        <v>1161166</v>
+        <v>1158166</v>
       </c>
       <c r="E991" t="s">
         <v>25</v>
@@ -32886,10 +32886,10 @@
         <v>11</v>
       </c>
       <c r="C992">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D992">
-        <v>1572546</v>
+        <v>1568046</v>
       </c>
       <c r="E992" t="s">
         <v>25</v>
@@ -32950,10 +32950,10 @@
         <v>11</v>
       </c>
       <c r="C994">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D994">
-        <v>1069929</v>
+        <v>1066929</v>
       </c>
       <c r="E994" t="s">
         <v>25</v>
@@ -33046,10 +33046,10 @@
         <v>11</v>
       </c>
       <c r="C997">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D997">
-        <v>282066</v>
+        <v>279066</v>
       </c>
       <c r="E997" t="s">
         <v>25</v>
@@ -33142,10 +33142,10 @@
         <v>11</v>
       </c>
       <c r="C1000">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D1000">
-        <v>339248</v>
+        <v>339028</v>
       </c>
       <c r="E1000" t="s">
         <v>25</v>
@@ -33238,10 +33238,10 @@
         <v>11</v>
       </c>
       <c r="C1003">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="D1003">
-        <v>1391917</v>
+        <v>1390483</v>
       </c>
       <c r="E1003" t="s">
         <v>25</v>
@@ -33302,10 +33302,10 @@
         <v>11</v>
       </c>
       <c r="C1005">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D1005">
-        <v>769060</v>
+        <v>766524</v>
       </c>
       <c r="E1005" t="s">
         <v>25</v>
@@ -33366,10 +33366,10 @@
         <v>11</v>
       </c>
       <c r="C1007">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D1007">
-        <v>2285957</v>
+        <v>2282957</v>
       </c>
       <c r="E1007" t="s">
         <v>25</v>
@@ -33558,10 +33558,10 @@
         <v>11</v>
       </c>
       <c r="C1013">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D1013">
-        <v>372954</v>
+        <v>371154</v>
       </c>
       <c r="E1013" t="s">
         <v>25</v>
@@ -33654,10 +33654,10 @@
         <v>11</v>
       </c>
       <c r="C1016">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D1016">
-        <v>506303</v>
+        <v>506043</v>
       </c>
       <c r="E1016" t="s">
         <v>25</v>
@@ -33686,10 +33686,10 @@
         <v>11</v>
       </c>
       <c r="C1017">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D1017">
-        <v>1197311</v>
+        <v>1196096</v>
       </c>
       <c r="E1017" t="s">
         <v>25</v>
@@ -33750,10 +33750,10 @@
         <v>11</v>
       </c>
       <c r="C1019">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="D1019">
-        <v>2106030</v>
+        <v>2105839</v>
       </c>
       <c r="E1019" t="s">
         <v>25</v>
@@ -33942,10 +33942,10 @@
         <v>11</v>
       </c>
       <c r="C1025">
-        <v>8284</v>
+        <v>8280</v>
       </c>
       <c r="D1025">
-        <v>11095039</v>
+        <v>11090591</v>
       </c>
       <c r="E1025" t="s">
         <v>25</v>
@@ -33974,10 +33974,10 @@
         <v>11</v>
       </c>
       <c r="C1026">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="D1026">
-        <v>2571646</v>
+        <v>2568646</v>
       </c>
       <c r="E1026" t="s">
         <v>25</v>
@@ -34038,10 +34038,10 @@
         <v>11</v>
       </c>
       <c r="C1028">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D1028">
-        <v>1167363</v>
+        <v>1162895</v>
       </c>
       <c r="E1028" t="s">
         <v>25</v>
@@ -34134,10 +34134,10 @@
         <v>11</v>
       </c>
       <c r="C1031">
-        <v>5233</v>
+        <v>5223</v>
       </c>
       <c r="D1031">
-        <v>7059115</v>
+        <v>7054313</v>
       </c>
       <c r="E1031" t="s">
         <v>25</v>
@@ -34166,10 +34166,10 @@
         <v>11</v>
       </c>
       <c r="C1032">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="D1032">
-        <v>2856304</v>
+        <v>2854388</v>
       </c>
       <c r="E1032" t="s">
         <v>25</v>
@@ -34198,10 +34198,10 @@
         <v>11</v>
       </c>
       <c r="C1033">
-        <v>2385</v>
+        <v>2377</v>
       </c>
       <c r="D1033">
-        <v>2843138</v>
+        <v>2834842</v>
       </c>
       <c r="E1033" t="s">
         <v>25</v>
@@ -34230,10 +34230,10 @@
         <v>11</v>
       </c>
       <c r="C1034">
-        <v>5926</v>
+        <v>5920</v>
       </c>
       <c r="D1034">
-        <v>7966115</v>
+        <v>7958237</v>
       </c>
       <c r="E1034" t="s">
         <v>25</v>
@@ -34262,10 +34262,10 @@
         <v>11</v>
       </c>
       <c r="C1035">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="D1035">
-        <v>2401830</v>
+        <v>2400730</v>
       </c>
       <c r="E1035" t="s">
         <v>25</v>
@@ -34294,10 +34294,10 @@
         <v>11</v>
       </c>
       <c r="C1036">
-        <v>6734</v>
+        <v>6728</v>
       </c>
       <c r="D1036">
-        <v>8128870</v>
+        <v>8125470</v>
       </c>
       <c r="E1036" t="s">
         <v>25</v>
@@ -34678,10 +34678,10 @@
         <v>11</v>
       </c>
       <c r="C1048">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D1048">
-        <v>368534</v>
+        <v>365984</v>
       </c>
       <c r="E1048" t="s">
         <v>25</v>
@@ -34710,10 +34710,10 @@
         <v>11</v>
       </c>
       <c r="C1049">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D1049">
-        <v>403159</v>
+        <v>400159</v>
       </c>
       <c r="E1049" t="s">
         <v>25</v>
@@ -35094,10 +35094,10 @@
         <v>11</v>
       </c>
       <c r="C1061">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1061">
-        <v>197844</v>
+        <v>196444</v>
       </c>
       <c r="E1061" t="s">
         <v>25</v>
@@ -35158,10 +35158,10 @@
         <v>11</v>
       </c>
       <c r="C1063">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D1063">
-        <v>470479</v>
+        <v>468694</v>
       </c>
       <c r="E1063" t="s">
         <v>25</v>
@@ -35190,10 +35190,10 @@
         <v>11</v>
       </c>
       <c r="C1064">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D1064">
-        <v>1292823</v>
+        <v>1291393</v>
       </c>
       <c r="E1064" t="s">
         <v>25</v>
@@ -35254,10 +35254,10 @@
         <v>11</v>
       </c>
       <c r="C1066">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D1066">
-        <v>750863</v>
+        <v>747550</v>
       </c>
       <c r="E1066" t="s">
         <v>25</v>
@@ -35286,10 +35286,10 @@
         <v>11</v>
       </c>
       <c r="C1067">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="D1067">
-        <v>1755297</v>
+        <v>1751821</v>
       </c>
       <c r="E1067" t="s">
         <v>25</v>
@@ -35318,10 +35318,10 @@
         <v>11</v>
       </c>
       <c r="C1068">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D1068">
-        <v>556297</v>
+        <v>554901</v>
       </c>
       <c r="E1068" t="s">
         <v>25</v>
@@ -35350,10 +35350,10 @@
         <v>11</v>
       </c>
       <c r="C1069">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="D1069">
-        <v>2189028</v>
+        <v>2186733</v>
       </c>
       <c r="E1069" t="s">
         <v>25</v>
@@ -35798,10 +35798,10 @@
         <v>11</v>
       </c>
       <c r="C1083">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D1083">
-        <v>780893</v>
+        <v>779583</v>
       </c>
       <c r="E1083" t="s">
         <v>25</v>
@@ -36054,10 +36054,10 @@
         <v>11</v>
       </c>
       <c r="C1091">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="D1091">
-        <v>4128951</v>
+        <v>4128575</v>
       </c>
       <c r="E1091" t="s">
         <v>25</v>
@@ -36214,10 +36214,10 @@
         <v>11</v>
       </c>
       <c r="C1096">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D1096">
-        <v>951879</v>
+        <v>951149</v>
       </c>
       <c r="E1096" t="s">
         <v>25</v>
@@ -36246,10 +36246,10 @@
         <v>11</v>
       </c>
       <c r="C1097">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D1097">
-        <v>2435735</v>
+        <v>2432735</v>
       </c>
       <c r="E1097" t="s">
         <v>25</v>
@@ -36310,10 +36310,10 @@
         <v>11</v>
       </c>
       <c r="C1099">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D1099">
-        <v>1446582</v>
+        <v>1443582</v>
       </c>
       <c r="E1099" t="s">
         <v>25</v>
@@ -36342,10 +36342,10 @@
         <v>11</v>
       </c>
       <c r="C1100">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="D1100">
-        <v>3491199</v>
+        <v>3488357</v>
       </c>
       <c r="E1100" t="s">
         <v>25</v>
@@ -36406,10 +36406,10 @@
         <v>11</v>
       </c>
       <c r="C1102">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="D1102">
-        <v>3329680</v>
+        <v>3329004</v>
       </c>
       <c r="E1102" t="s">
         <v>25</v>
@@ -36470,10 +36470,10 @@
         <v>11</v>
       </c>
       <c r="C1104">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D1104">
-        <v>462070</v>
+        <v>456070</v>
       </c>
       <c r="E1104" t="s">
         <v>25</v>
@@ -36630,10 +36630,10 @@
         <v>11</v>
       </c>
       <c r="C1109">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D1109">
-        <v>1253437</v>
+        <v>1250437</v>
       </c>
       <c r="E1109" t="s">
         <v>25</v>
@@ -36726,10 +36726,10 @@
         <v>11</v>
       </c>
       <c r="C1112">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D1112">
-        <v>376788</v>
+        <v>370788</v>
       </c>
       <c r="E1112" t="s">
         <v>25</v>
@@ -36854,10 +36854,10 @@
         <v>11</v>
       </c>
       <c r="C1116">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D1116">
-        <v>984492</v>
+        <v>983228</v>
       </c>
       <c r="E1116" t="s">
         <v>25</v>
@@ -36950,10 +36950,10 @@
         <v>11</v>
       </c>
       <c r="C1119">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D1119">
-        <v>268365</v>
+        <v>263507</v>
       </c>
       <c r="E1119" t="s">
         <v>26</v>
@@ -36982,10 +36982,10 @@
         <v>11</v>
       </c>
       <c r="C1120">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D1120">
-        <v>306362</v>
+        <v>301163</v>
       </c>
       <c r="E1120" t="s">
         <v>26</v>
@@ -37046,10 +37046,10 @@
         <v>11</v>
       </c>
       <c r="C1122">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D1122">
-        <v>831576</v>
+        <v>825576</v>
       </c>
       <c r="E1122" t="s">
         <v>26</v>
@@ -37078,10 +37078,10 @@
         <v>11</v>
       </c>
       <c r="C1123">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D1123">
-        <v>973766</v>
+        <v>968026</v>
       </c>
       <c r="E1123" t="s">
         <v>26</v>
@@ -37142,10 +37142,10 @@
         <v>11</v>
       </c>
       <c r="C1125">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="D1125">
-        <v>826417</v>
+        <v>815182</v>
       </c>
       <c r="E1125" t="s">
         <v>26</v>
@@ -37270,10 +37270,10 @@
         <v>11</v>
       </c>
       <c r="C1129">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1129">
-        <v>288429</v>
+        <v>287979</v>
       </c>
       <c r="E1129" t="s">
         <v>26</v>
@@ -37302,10 +37302,10 @@
         <v>11</v>
       </c>
       <c r="C1130">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D1130">
-        <v>221362</v>
+        <v>220602</v>
       </c>
       <c r="E1130" t="s">
         <v>26</v>
@@ -37334,10 +37334,10 @@
         <v>11</v>
       </c>
       <c r="C1131">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D1131">
-        <v>313494</v>
+        <v>312976</v>
       </c>
       <c r="E1131" t="s">
         <v>26</v>
@@ -37366,10 +37366,10 @@
         <v>11</v>
       </c>
       <c r="C1132">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D1132">
-        <v>412926</v>
+        <v>411411</v>
       </c>
       <c r="E1132" t="s">
         <v>26</v>
@@ -37398,10 +37398,10 @@
         <v>11</v>
       </c>
       <c r="C1133">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D1133">
-        <v>223437</v>
+        <v>221466</v>
       </c>
       <c r="E1133" t="s">
         <v>26</v>
@@ -37430,10 +37430,10 @@
         <v>11</v>
       </c>
       <c r="C1134">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D1134">
-        <v>682576</v>
+        <v>680599</v>
       </c>
       <c r="E1134" t="s">
         <v>26</v>
@@ -37494,10 +37494,10 @@
         <v>11</v>
       </c>
       <c r="C1136">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D1136">
-        <v>551351</v>
+        <v>548333</v>
       </c>
       <c r="E1136" t="s">
         <v>26</v>
@@ -37558,10 +37558,10 @@
         <v>11</v>
       </c>
       <c r="C1138">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="D1138">
-        <v>2166678</v>
+        <v>2163678</v>
       </c>
       <c r="E1138" t="s">
         <v>26</v>
@@ -37782,10 +37782,10 @@
         <v>11</v>
       </c>
       <c r="C1145">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D1145">
-        <v>969008</v>
+        <v>967020</v>
       </c>
       <c r="E1145" t="s">
         <v>26</v>
@@ -38678,10 +38678,10 @@
         <v>11</v>
       </c>
       <c r="C1173">
-        <v>4519</v>
+        <v>4517</v>
       </c>
       <c r="D1173">
-        <v>5945373</v>
+        <v>5942373</v>
       </c>
       <c r="E1173" t="s">
         <v>26</v>
@@ -38838,10 +38838,10 @@
         <v>11</v>
       </c>
       <c r="C1178">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D1178">
-        <v>590063</v>
+        <v>587828</v>
       </c>
       <c r="E1178" t="s">
         <v>26</v>
@@ -38934,10 +38934,10 @@
         <v>11</v>
       </c>
       <c r="C1181">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D1181">
-        <v>1175946</v>
+        <v>1175274</v>
       </c>
       <c r="E1181" t="s">
         <v>26</v>
@@ -38966,10 +38966,10 @@
         <v>11</v>
       </c>
       <c r="C1182">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="D1182">
-        <v>1972464</v>
+        <v>1971652</v>
       </c>
       <c r="E1182" t="s">
         <v>26</v>
@@ -39510,10 +39510,10 @@
         <v>11</v>
       </c>
       <c r="C1199">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D1199">
-        <v>529471</v>
+        <v>526701</v>
       </c>
       <c r="E1199" t="s">
         <v>26</v>
@@ -39542,10 +39542,10 @@
         <v>11</v>
       </c>
       <c r="C1200">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D1200">
-        <v>204450</v>
+        <v>203048</v>
       </c>
       <c r="E1200" t="s">
         <v>26</v>
@@ -39734,10 +39734,10 @@
         <v>11</v>
       </c>
       <c r="C1206">
-        <v>5810</v>
+        <v>5801</v>
       </c>
       <c r="D1206">
-        <v>7721829</v>
+        <v>7712689</v>
       </c>
       <c r="E1206" t="s">
         <v>26</v>
@@ -39894,10 +39894,10 @@
         <v>11</v>
       </c>
       <c r="C1211">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D1211">
-        <v>1268014</v>
+        <v>1267137</v>
       </c>
       <c r="E1211" t="s">
         <v>26</v>
@@ -39926,10 +39926,10 @@
         <v>11</v>
       </c>
       <c r="C1212">
-        <v>4080</v>
+        <v>4076</v>
       </c>
       <c r="D1212">
-        <v>5511774</v>
+        <v>5507572</v>
       </c>
       <c r="E1212" t="s">
         <v>26</v>
@@ -39958,10 +39958,10 @@
         <v>11</v>
       </c>
       <c r="C1213">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D1213">
-        <v>2192040</v>
+        <v>2191366</v>
       </c>
       <c r="E1213" t="s">
         <v>26</v>
@@ -39990,10 +39990,10 @@
         <v>11</v>
       </c>
       <c r="C1214">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="D1214">
-        <v>2552469</v>
+        <v>2548918</v>
       </c>
       <c r="E1214" t="s">
         <v>26</v>
@@ -40022,10 +40022,10 @@
         <v>11</v>
       </c>
       <c r="C1215">
-        <v>4935</v>
+        <v>4920</v>
       </c>
       <c r="D1215">
-        <v>6613080</v>
+        <v>6594725</v>
       </c>
       <c r="E1215" t="s">
         <v>26</v>
@@ -40054,10 +40054,10 @@
         <v>11</v>
       </c>
       <c r="C1216">
-        <v>1707</v>
+        <v>1698</v>
       </c>
       <c r="D1216">
-        <v>2066621</v>
+        <v>2056930</v>
       </c>
       <c r="E1216" t="s">
         <v>26</v>
@@ -40086,10 +40086,10 @@
         <v>11</v>
       </c>
       <c r="C1217">
-        <v>4878</v>
+        <v>4872</v>
       </c>
       <c r="D1217">
-        <v>5824081</v>
+        <v>5819658</v>
       </c>
       <c r="E1217" t="s">
         <v>26</v>
@@ -40534,10 +40534,10 @@
         <v>11</v>
       </c>
       <c r="C1231">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D1231">
-        <v>664304</v>
+        <v>663994</v>
       </c>
       <c r="E1231" t="s">
         <v>26</v>
@@ -40662,10 +40662,10 @@
         <v>11</v>
       </c>
       <c r="C1235">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="D1235">
-        <v>1796055</v>
+        <v>1795015</v>
       </c>
       <c r="E1235" t="s">
         <v>26</v>
@@ -40790,10 +40790,10 @@
         <v>11</v>
       </c>
       <c r="C1239">
-        <v>6987</v>
+        <v>6981</v>
       </c>
       <c r="D1239">
-        <v>9200634</v>
+        <v>9193830</v>
       </c>
       <c r="E1239" t="s">
         <v>26</v>
@@ -40822,10 +40822,10 @@
         <v>11</v>
       </c>
       <c r="C1240">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D1240">
-        <v>1233756</v>
+        <v>1232616</v>
       </c>
       <c r="E1240" t="s">
         <v>26</v>
@@ -40854,10 +40854,10 @@
         <v>11</v>
       </c>
       <c r="C1241">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="D1241">
-        <v>6519490</v>
+        <v>6517939</v>
       </c>
       <c r="E1241" t="s">
         <v>26</v>
@@ -40918,10 +40918,10 @@
         <v>11</v>
       </c>
       <c r="C1243">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D1243">
-        <v>428511</v>
+        <v>426802</v>
       </c>
       <c r="E1243" t="s">
         <v>26</v>
@@ -40950,10 +40950,10 @@
         <v>11</v>
       </c>
       <c r="C1244">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="D1244">
-        <v>1905423</v>
+        <v>1899541</v>
       </c>
       <c r="E1244" t="s">
         <v>26</v>
@@ -40982,10 +40982,10 @@
         <v>11</v>
       </c>
       <c r="C1245">
-        <v>3824</v>
+        <v>3820</v>
       </c>
       <c r="D1245">
-        <v>5208260</v>
+        <v>5204650</v>
       </c>
       <c r="E1245" t="s">
         <v>26</v>
@@ -41046,10 +41046,10 @@
         <v>11</v>
       </c>
       <c r="C1247">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="D1247">
-        <v>2330710</v>
+        <v>2323270</v>
       </c>
       <c r="E1247" t="s">
         <v>26</v>
@@ -41078,10 +41078,10 @@
         <v>11</v>
       </c>
       <c r="C1248">
-        <v>3765</v>
+        <v>3759</v>
       </c>
       <c r="D1248">
-        <v>5044512</v>
+        <v>5037483</v>
       </c>
       <c r="E1248" t="s">
         <v>26</v>
@@ -41142,10 +41142,10 @@
         <v>11</v>
       </c>
       <c r="C1250">
-        <v>4891</v>
+        <v>4889</v>
       </c>
       <c r="D1250">
-        <v>5676871</v>
+        <v>5676745</v>
       </c>
       <c r="E1250" t="s">
         <v>26</v>
@@ -41334,10 +41334,10 @@
         <v>11</v>
       </c>
       <c r="C1256">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D1256">
-        <v>1181543</v>
+        <v>1178543</v>
       </c>
       <c r="E1256" t="s">
         <v>26</v>
@@ -41398,10 +41398,10 @@
         <v>11</v>
       </c>
       <c r="C1258">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D1258">
-        <v>1165543</v>
+        <v>1162543</v>
       </c>
       <c r="E1258" t="s">
         <v>26</v>
@@ -41590,10 +41590,10 @@
         <v>11</v>
       </c>
       <c r="C1264">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1264">
-        <v>195827</v>
+        <v>194777</v>
       </c>
       <c r="E1264" t="s">
         <v>26</v>
@@ -42454,10 +42454,10 @@
         <v>11</v>
       </c>
       <c r="C1291">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D1291">
-        <v>910632</v>
+        <v>907632</v>
       </c>
       <c r="E1291" t="s">
         <v>26</v>
@@ -42486,10 +42486,10 @@
         <v>11</v>
       </c>
       <c r="C1292">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D1292">
-        <v>1331616</v>
+        <v>1328616</v>
       </c>
       <c r="E1292" t="s">
         <v>26</v>
@@ -42646,10 +42646,10 @@
         <v>11</v>
       </c>
       <c r="C1297">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="D1297">
-        <v>2346893</v>
+        <v>2343893</v>
       </c>
       <c r="E1297" t="s">
         <v>26</v>
@@ -42966,10 +42966,10 @@
         <v>11</v>
       </c>
       <c r="C1307">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D1307">
-        <v>361771</v>
+        <v>359749</v>
       </c>
       <c r="E1307" t="s">
         <v>26</v>
@@ -43062,10 +43062,10 @@
         <v>11</v>
       </c>
       <c r="C1310">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D1310">
-        <v>586524</v>
+        <v>585984</v>
       </c>
       <c r="E1310" t="s">
         <v>26</v>
@@ -43094,10 +43094,10 @@
         <v>11</v>
       </c>
       <c r="C1311">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D1311">
-        <v>1136851</v>
+        <v>1136303</v>
       </c>
       <c r="E1311" t="s">
         <v>26</v>
@@ -43126,10 +43126,10 @@
         <v>11</v>
       </c>
       <c r="C1312">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D1312">
-        <v>465728</v>
+        <v>462728</v>
       </c>
       <c r="E1312" t="s">
         <v>26</v>
@@ -43510,10 +43510,10 @@
         <v>11</v>
       </c>
       <c r="C1324">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D1324">
-        <v>547756</v>
+        <v>544756</v>
       </c>
       <c r="E1324" t="s">
         <v>26</v>
@@ -43638,10 +43638,10 @@
         <v>11</v>
       </c>
       <c r="C1328">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D1328">
-        <v>259474</v>
+        <v>256474</v>
       </c>
       <c r="E1328" t="s">
         <v>26</v>
@@ -43670,10 +43670,10 @@
         <v>11</v>
       </c>
       <c r="C1329">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D1329">
-        <v>1159745</v>
+        <v>1158549</v>
       </c>
       <c r="E1329" t="s">
         <v>26</v>
@@ -43702,10 +43702,10 @@
         <v>11</v>
       </c>
       <c r="C1330">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D1330">
-        <v>594040</v>
+        <v>592045</v>
       </c>
       <c r="E1330" t="s">
         <v>27</v>
@@ -43766,10 +43766,10 @@
         <v>11</v>
       </c>
       <c r="C1332">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D1332">
-        <v>1501592</v>
+        <v>1501061</v>
       </c>
       <c r="E1332" t="s">
         <v>27</v>
@@ -43830,10 +43830,10 @@
         <v>11</v>
       </c>
       <c r="C1334">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="D1334">
-        <v>4443289</v>
+        <v>4440289</v>
       </c>
       <c r="E1334" t="s">
         <v>27</v>
@@ -43862,10 +43862,10 @@
         <v>11</v>
       </c>
       <c r="C1335">
-        <v>4839</v>
+        <v>4835</v>
       </c>
       <c r="D1335">
-        <v>6410496</v>
+        <v>6404789</v>
       </c>
       <c r="E1335" t="s">
         <v>27</v>
@@ -43894,10 +43894,10 @@
         <v>11</v>
       </c>
       <c r="C1336">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D1336">
-        <v>1394777</v>
+        <v>1388777</v>
       </c>
       <c r="E1336" t="s">
         <v>27</v>
@@ -44054,10 +44054,10 @@
         <v>11</v>
       </c>
       <c r="C1341">
-        <v>3480</v>
+        <v>3474</v>
       </c>
       <c r="D1341">
-        <v>4737727</v>
+        <v>4732542</v>
       </c>
       <c r="E1341" t="s">
         <v>27</v>
@@ -44150,10 +44150,10 @@
         <v>11</v>
       </c>
       <c r="C1344">
-        <v>4502</v>
+        <v>4494</v>
       </c>
       <c r="D1344">
-        <v>6066995</v>
+        <v>6060633</v>
       </c>
       <c r="E1344" t="s">
         <v>27</v>
@@ -44182,10 +44182,10 @@
         <v>11</v>
       </c>
       <c r="C1345">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="D1345">
-        <v>1914341</v>
+        <v>1908341</v>
       </c>
       <c r="E1345" t="s">
         <v>27</v>
@@ -44214,10 +44214,10 @@
         <v>11</v>
       </c>
       <c r="C1346">
-        <v>4445</v>
+        <v>4437</v>
       </c>
       <c r="D1346">
-        <v>5531298</v>
+        <v>5528825</v>
       </c>
       <c r="E1346" t="s">
         <v>27</v>
@@ -44246,10 +44246,10 @@
         <v>11</v>
       </c>
       <c r="C1347">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D1347">
-        <v>527107</v>
+        <v>525245</v>
       </c>
       <c r="E1347" t="s">
         <v>27</v>
@@ -44278,10 +44278,10 @@
         <v>11</v>
       </c>
       <c r="C1348">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D1348">
-        <v>834026</v>
+        <v>831026</v>
       </c>
       <c r="E1348" t="s">
         <v>27</v>
@@ -44566,10 +44566,10 @@
         <v>11</v>
       </c>
       <c r="C1357">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D1357">
-        <v>539177</v>
+        <v>536177</v>
       </c>
       <c r="E1357" t="s">
         <v>27</v>
@@ -44598,10 +44598,10 @@
         <v>11</v>
       </c>
       <c r="C1358">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="D1358">
-        <v>1572122</v>
+        <v>1566160</v>
       </c>
       <c r="E1358" t="s">
         <v>27</v>
@@ -44662,10 +44662,10 @@
         <v>11</v>
       </c>
       <c r="C1360">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D1360">
-        <v>778247</v>
+        <v>775557</v>
       </c>
       <c r="E1360" t="s">
         <v>27</v>
@@ -44694,10 +44694,10 @@
         <v>11</v>
       </c>
       <c r="C1361">
-        <v>1736</v>
+        <v>1728</v>
       </c>
       <c r="D1361">
-        <v>2299422</v>
+        <v>2290601</v>
       </c>
       <c r="E1361" t="s">
         <v>27</v>
@@ -44758,10 +44758,10 @@
         <v>11</v>
       </c>
       <c r="C1363">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="D1363">
-        <v>3185899</v>
+        <v>3185319</v>
       </c>
       <c r="E1363" t="s">
         <v>27</v>
@@ -45110,10 +45110,10 @@
         <v>11</v>
       </c>
       <c r="C1374">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D1374">
-        <v>404543</v>
+        <v>403796</v>
       </c>
       <c r="E1374" t="s">
         <v>27</v>
@@ -45238,10 +45238,10 @@
         <v>11</v>
       </c>
       <c r="C1378">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D1378">
-        <v>231753</v>
+        <v>231153</v>
       </c>
       <c r="E1378" t="s">
         <v>27</v>
@@ -45462,10 +45462,10 @@
         <v>11</v>
       </c>
       <c r="C1385">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D1385">
-        <v>215627</v>
+        <v>213478</v>
       </c>
       <c r="E1385" t="s">
         <v>27</v>
@@ -45622,10 +45622,10 @@
         <v>11</v>
       </c>
       <c r="C1390">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D1390">
-        <v>765590</v>
+        <v>764472</v>
       </c>
       <c r="E1390" t="s">
         <v>27</v>
@@ -45942,10 +45942,10 @@
         <v>11</v>
       </c>
       <c r="C1400">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="D1400">
-        <v>2180635</v>
+        <v>2177635</v>
       </c>
       <c r="E1400" t="s">
         <v>27</v>
@@ -46134,10 +46134,10 @@
         <v>11</v>
       </c>
       <c r="C1406">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D1406">
-        <v>669525</v>
+        <v>666990</v>
       </c>
       <c r="E1406" t="s">
         <v>27</v>
@@ -46166,10 +46166,10 @@
         <v>11</v>
       </c>
       <c r="C1407">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D1407">
-        <v>1469082</v>
+        <v>1465226</v>
       </c>
       <c r="E1407" t="s">
         <v>27</v>
@@ -46198,10 +46198,10 @@
         <v>11</v>
       </c>
       <c r="C1408">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D1408">
-        <v>699876</v>
+        <v>696396</v>
       </c>
       <c r="E1408" t="s">
         <v>27</v>
@@ -46262,10 +46262,10 @@
         <v>11</v>
       </c>
       <c r="C1410">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="D1410">
-        <v>2100496</v>
+        <v>2097496</v>
       </c>
       <c r="E1410" t="s">
         <v>27</v>
@@ -46294,10 +46294,10 @@
         <v>11</v>
       </c>
       <c r="C1411">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D1411">
-        <v>707923</v>
+        <v>707071</v>
       </c>
       <c r="E1411" t="s">
         <v>27</v>
@@ -46390,10 +46390,10 @@
         <v>11</v>
       </c>
       <c r="C1414">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D1414">
-        <v>2140798</v>
+        <v>2138148</v>
       </c>
       <c r="E1414" t="s">
         <v>28</v>
@@ -46486,10 +46486,10 @@
         <v>11</v>
       </c>
       <c r="C1417">
-        <v>7449</v>
+        <v>7447</v>
       </c>
       <c r="D1417">
-        <v>10105329</v>
+        <v>10104863</v>
       </c>
       <c r="E1417" t="s">
         <v>28</v>
@@ -46518,10 +46518,10 @@
         <v>11</v>
       </c>
       <c r="C1418">
-        <v>3224</v>
+        <v>3222</v>
       </c>
       <c r="D1418">
-        <v>4534609</v>
+        <v>4532207</v>
       </c>
       <c r="E1418" t="s">
         <v>28</v>
@@ -46582,10 +46582,10 @@
         <v>11</v>
       </c>
       <c r="C1420">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D1420">
-        <v>1100042</v>
+        <v>1094042</v>
       </c>
       <c r="E1420" t="s">
         <v>28</v>
@@ -46646,10 +46646,10 @@
         <v>11</v>
       </c>
       <c r="C1422">
-        <v>2392</v>
+        <v>2382</v>
       </c>
       <c r="D1422">
-        <v>3341636</v>
+        <v>3329352</v>
       </c>
       <c r="E1422" t="s">
         <v>28</v>
@@ -46678,10 +46678,10 @@
         <v>11</v>
       </c>
       <c r="C1423">
-        <v>4301</v>
+        <v>4291</v>
       </c>
       <c r="D1423">
-        <v>5855441</v>
+        <v>5842926</v>
       </c>
       <c r="E1423" t="s">
         <v>28</v>
@@ -46710,10 +46710,10 @@
         <v>11</v>
       </c>
       <c r="C1424">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="D1424">
-        <v>3415133</v>
+        <v>3412133</v>
       </c>
       <c r="E1424" t="s">
         <v>28</v>
@@ -46742,10 +46742,10 @@
         <v>11</v>
       </c>
       <c r="C1425">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="D1425">
-        <v>2854392</v>
+        <v>2852443</v>
       </c>
       <c r="E1425" t="s">
         <v>28</v>
@@ -46774,10 +46774,10 @@
         <v>11</v>
       </c>
       <c r="C1426">
-        <v>3661</v>
+        <v>3655</v>
       </c>
       <c r="D1426">
-        <v>4862522</v>
+        <v>4857259</v>
       </c>
       <c r="E1426" t="s">
         <v>28</v>
@@ -46806,10 +46806,10 @@
         <v>11</v>
       </c>
       <c r="C1427">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="D1427">
-        <v>2089858</v>
+        <v>2081923</v>
       </c>
       <c r="E1427" t="s">
         <v>28</v>
@@ -46838,10 +46838,10 @@
         <v>11</v>
       </c>
       <c r="C1428">
-        <v>5575</v>
+        <v>5573</v>
       </c>
       <c r="D1428">
-        <v>6859919</v>
+        <v>6856919</v>
       </c>
       <c r="E1428" t="s">
         <v>28</v>
@@ -46998,10 +46998,10 @@
         <v>11</v>
       </c>
       <c r="C1433">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D1433">
-        <v>961798</v>
+        <v>958798</v>
       </c>
       <c r="E1433" t="s">
         <v>28</v>
@@ -47094,10 +47094,10 @@
         <v>11</v>
       </c>
       <c r="C1436">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D1436">
-        <v>1447624</v>
+        <v>1445748</v>
       </c>
       <c r="E1436" t="s">
         <v>28</v>
@@ -47446,10 +47446,10 @@
         <v>11</v>
       </c>
       <c r="C1447">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="D1447">
-        <v>3222187</v>
+        <v>3219187</v>
       </c>
       <c r="E1447" t="s">
         <v>28</v>
@@ -47542,10 +47542,10 @@
         <v>11</v>
       </c>
       <c r="C1450">
-        <v>6774</v>
+        <v>6772</v>
       </c>
       <c r="D1450">
-        <v>9678637</v>
+        <v>9675637</v>
       </c>
       <c r="E1450" t="s">
         <v>28</v>
@@ -47574,10 +47574,10 @@
         <v>11</v>
       </c>
       <c r="C1451">
-        <v>11193</v>
+        <v>11189</v>
       </c>
       <c r="D1451">
-        <v>14942705</v>
+        <v>14937075</v>
       </c>
       <c r="E1451" t="s">
         <v>28</v>
@@ -47606,10 +47606,10 @@
         <v>11</v>
       </c>
       <c r="C1452">
-        <v>2596</v>
+        <v>2592</v>
       </c>
       <c r="D1452">
-        <v>3605305</v>
+        <v>3604269</v>
       </c>
       <c r="E1452" t="s">
         <v>28</v>
@@ -47638,10 +47638,10 @@
         <v>11</v>
       </c>
       <c r="C1453">
-        <v>6306</v>
+        <v>6304</v>
       </c>
       <c r="D1453">
-        <v>9110322</v>
+        <v>9107322</v>
       </c>
       <c r="E1453" t="s">
         <v>28</v>
@@ -47702,10 +47702,10 @@
         <v>11</v>
       </c>
       <c r="C1455">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D1455">
-        <v>765257</v>
+        <v>762657</v>
       </c>
       <c r="E1455" t="s">
         <v>28</v>
@@ -47734,10 +47734,10 @@
         <v>11</v>
       </c>
       <c r="C1456">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="D1456">
-        <v>2418265</v>
+        <v>2413753</v>
       </c>
       <c r="E1456" t="s">
         <v>28</v>
@@ -47766,10 +47766,10 @@
         <v>11</v>
       </c>
       <c r="C1457">
-        <v>6553</v>
+        <v>6539</v>
       </c>
       <c r="D1457">
-        <v>9024910</v>
+        <v>9011692</v>
       </c>
       <c r="E1457" t="s">
         <v>28</v>
@@ -47830,10 +47830,10 @@
         <v>11</v>
       </c>
       <c r="C1459">
-        <v>2831</v>
+        <v>2821</v>
       </c>
       <c r="D1459">
-        <v>3399411</v>
+        <v>3392503</v>
       </c>
       <c r="E1459" t="s">
         <v>28</v>
@@ -47862,10 +47862,10 @@
         <v>11</v>
       </c>
       <c r="C1460">
-        <v>6140</v>
+        <v>6128</v>
       </c>
       <c r="D1460">
-        <v>8272911</v>
+        <v>8256239</v>
       </c>
       <c r="E1460" t="s">
         <v>28</v>
@@ -47894,10 +47894,10 @@
         <v>11</v>
       </c>
       <c r="C1461">
-        <v>2469</v>
+        <v>2459</v>
       </c>
       <c r="D1461">
-        <v>3079915</v>
+        <v>3072772</v>
       </c>
       <c r="E1461" t="s">
         <v>28</v>
@@ -47926,10 +47926,10 @@
         <v>11</v>
       </c>
       <c r="C1462">
-        <v>7508</v>
+        <v>7498</v>
       </c>
       <c r="D1462">
-        <v>9006928</v>
+        <v>8994828</v>
       </c>
       <c r="E1462" t="s">
         <v>28</v>
@@ -48374,10 +48374,10 @@
         <v>11</v>
       </c>
       <c r="C1476">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D1476">
-        <v>791098</v>
+        <v>790176</v>
       </c>
       <c r="E1476" t="s">
         <v>28</v>
@@ -48630,10 +48630,10 @@
         <v>11</v>
       </c>
       <c r="C1484">
-        <v>7775</v>
+        <v>7772</v>
       </c>
       <c r="D1484">
-        <v>10263557</v>
+        <v>10259057</v>
       </c>
       <c r="E1484" t="s">
         <v>28</v>
@@ -48694,10 +48694,10 @@
         <v>11</v>
       </c>
       <c r="C1486">
-        <v>4313</v>
+        <v>4311</v>
       </c>
       <c r="D1486">
-        <v>6216325</v>
+        <v>6213457</v>
       </c>
       <c r="E1486" t="s">
         <v>28</v>
@@ -48726,10 +48726,10 @@
         <v>11</v>
       </c>
       <c r="C1487">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D1487">
-        <v>553220</v>
+        <v>550220</v>
       </c>
       <c r="E1487" t="s">
         <v>28</v>
@@ -48822,10 +48822,10 @@
         <v>11</v>
       </c>
       <c r="C1490">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="D1490">
-        <v>3774123</v>
+        <v>3771851</v>
       </c>
       <c r="E1490" t="s">
         <v>28</v>
@@ -48886,10 +48886,10 @@
         <v>11</v>
       </c>
       <c r="C1492">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="D1492">
-        <v>2076710</v>
+        <v>2073224</v>
       </c>
       <c r="E1492" t="s">
         <v>28</v>
@@ -48918,10 +48918,10 @@
         <v>11</v>
       </c>
       <c r="C1493">
-        <v>3160</v>
+        <v>3154</v>
       </c>
       <c r="D1493">
-        <v>4168524</v>
+        <v>4166808</v>
       </c>
       <c r="E1493" t="s">
         <v>28</v>
@@ -48950,10 +48950,10 @@
         <v>11</v>
       </c>
       <c r="C1494">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D1494">
-        <v>1609823</v>
+        <v>1608097</v>
       </c>
       <c r="E1494" t="s">
         <v>28</v>
@@ -48982,10 +48982,10 @@
         <v>11</v>
       </c>
       <c r="C1495">
-        <v>5479</v>
+        <v>5475</v>
       </c>
       <c r="D1495">
-        <v>6484431</v>
+        <v>6481724</v>
       </c>
       <c r="E1495" t="s">
         <v>28</v>
@@ -49046,10 +49046,10 @@
         <v>11</v>
       </c>
       <c r="C1497">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D1497">
-        <v>1100559</v>
+        <v>1097974</v>
       </c>
       <c r="E1497" t="s">
         <v>28</v>
@@ -49334,10 +49334,10 @@
         <v>11</v>
       </c>
       <c r="C1506">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D1506">
-        <v>1825905</v>
+        <v>1822905</v>
       </c>
       <c r="E1506" t="s">
         <v>28</v>
@@ -49430,10 +49430,10 @@
         <v>11</v>
       </c>
       <c r="C1509">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D1509">
-        <v>2052819</v>
+        <v>2051314</v>
       </c>
       <c r="E1509" t="s">
         <v>28</v>
@@ -49462,10 +49462,10 @@
         <v>11</v>
       </c>
       <c r="C1510">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D1510">
-        <v>981751</v>
+        <v>978198</v>
       </c>
       <c r="E1510" t="s">
         <v>28</v>
@@ -49654,10 +49654,10 @@
         <v>11</v>
       </c>
       <c r="C1516">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="D1516">
-        <v>4220043</v>
+        <v>4217043</v>
       </c>
       <c r="E1516" t="s">
         <v>29</v>
@@ -49718,10 +49718,10 @@
         <v>11</v>
       </c>
       <c r="C1518">
-        <v>3685</v>
+        <v>3677</v>
       </c>
       <c r="D1518">
-        <v>5338008</v>
+        <v>5330688</v>
       </c>
       <c r="E1518" t="s">
         <v>29</v>
@@ -49846,10 +49846,10 @@
         <v>11</v>
       </c>
       <c r="C1522">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D1522">
-        <v>958577</v>
+        <v>956377</v>
       </c>
       <c r="E1522" t="s">
         <v>29</v>
@@ -49878,10 +49878,10 @@
         <v>11</v>
       </c>
       <c r="C1523">
-        <v>2140</v>
+        <v>2128</v>
       </c>
       <c r="D1523">
-        <v>2895150</v>
+        <v>2883164</v>
       </c>
       <c r="E1523" t="s">
         <v>29</v>
@@ -49910,10 +49910,10 @@
         <v>11</v>
       </c>
       <c r="C1524">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D1524">
-        <v>1349022</v>
+        <v>1347244</v>
       </c>
       <c r="E1524" t="s">
         <v>29</v>
@@ -49974,10 +49974,10 @@
         <v>11</v>
       </c>
       <c r="C1526">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="D1526">
-        <v>3090451</v>
+        <v>3087451</v>
       </c>
       <c r="E1526" t="s">
         <v>29</v>
@@ -50006,10 +50006,10 @@
         <v>11</v>
       </c>
       <c r="C1527">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D1527">
-        <v>1195500</v>
+        <v>1192620</v>
       </c>
       <c r="E1527" t="s">
         <v>29</v>
@@ -50038,10 +50038,10 @@
         <v>11</v>
       </c>
       <c r="C1528">
-        <v>2984</v>
+        <v>2978</v>
       </c>
       <c r="D1528">
-        <v>3782462</v>
+        <v>3775619</v>
       </c>
       <c r="E1528" t="s">
         <v>29</v>
@@ -50262,10 +50262,10 @@
         <v>11</v>
       </c>
       <c r="C1535">
-        <v>6243</v>
+        <v>6235</v>
       </c>
       <c r="D1535">
-        <v>8977818</v>
+        <v>8965818</v>
       </c>
       <c r="E1535" t="s">
         <v>29</v>
@@ -50294,10 +50294,10 @@
         <v>11</v>
       </c>
       <c r="C1536">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="D1536">
-        <v>4676911</v>
+        <v>4673911</v>
       </c>
       <c r="E1536" t="s">
         <v>29</v>
@@ -50326,10 +50326,10 @@
         <v>11</v>
       </c>
       <c r="C1537">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="D1537">
-        <v>2582807</v>
+        <v>2572596</v>
       </c>
       <c r="E1537" t="s">
         <v>29</v>
@@ -50390,10 +50390,10 @@
         <v>11</v>
       </c>
       <c r="C1539">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="D1539">
-        <v>1774895</v>
+        <v>1769105</v>
       </c>
       <c r="E1539" t="s">
         <v>29</v>
@@ -50422,10 +50422,10 @@
         <v>11</v>
       </c>
       <c r="C1540">
-        <v>6395</v>
+        <v>6371</v>
       </c>
       <c r="D1540">
-        <v>8912282</v>
+        <v>8879250</v>
       </c>
       <c r="E1540" t="s">
         <v>29</v>
@@ -50486,10 +50486,10 @@
         <v>11</v>
       </c>
       <c r="C1542">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="D1542">
-        <v>2377428</v>
+        <v>2375215</v>
       </c>
       <c r="E1542" t="s">
         <v>29</v>
@@ -50518,10 +50518,10 @@
         <v>11</v>
       </c>
       <c r="C1543">
-        <v>3990</v>
+        <v>3986</v>
       </c>
       <c r="D1543">
-        <v>5442899</v>
+        <v>5441356</v>
       </c>
       <c r="E1543" t="s">
         <v>29</v>
@@ -50550,10 +50550,10 @@
         <v>11</v>
       </c>
       <c r="C1544">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D1544">
-        <v>2596294</v>
+        <v>2591801</v>
       </c>
       <c r="E1544" t="s">
         <v>29</v>
@@ -50582,10 +50582,10 @@
         <v>11</v>
       </c>
       <c r="C1545">
-        <v>3229</v>
+        <v>3225</v>
       </c>
       <c r="D1545">
-        <v>4275031</v>
+        <v>4271701</v>
       </c>
       <c r="E1545" t="s">
         <v>29</v>
@@ -50646,10 +50646,10 @@
         <v>11</v>
       </c>
       <c r="C1547">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="D1547">
-        <v>4213785</v>
+        <v>4211695</v>
       </c>
       <c r="E1547" t="s">
         <v>29</v>
@@ -50742,10 +50742,10 @@
         <v>11</v>
       </c>
       <c r="C1550">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="D1550">
-        <v>5046450</v>
+        <v>5043450</v>
       </c>
       <c r="E1550" t="s">
         <v>29</v>
@@ -50774,10 +50774,10 @@
         <v>11</v>
       </c>
       <c r="C1551">
-        <v>14490</v>
+        <v>14482</v>
       </c>
       <c r="D1551">
-        <v>20488829</v>
+        <v>20478009</v>
       </c>
       <c r="E1551" t="s">
         <v>29</v>
@@ -50806,10 +50806,10 @@
         <v>11</v>
       </c>
       <c r="C1552">
-        <v>6745</v>
+        <v>6739</v>
       </c>
       <c r="D1552">
-        <v>9577581</v>
+        <v>9570971</v>
       </c>
       <c r="E1552" t="s">
         <v>29</v>
@@ -50838,10 +50838,10 @@
         <v>11</v>
       </c>
       <c r="C1553">
-        <v>11724</v>
+        <v>11718</v>
       </c>
       <c r="D1553">
-        <v>17374298</v>
+        <v>17367984</v>
       </c>
       <c r="E1553" t="s">
         <v>29</v>
@@ -50870,10 +50870,10 @@
         <v>11</v>
       </c>
       <c r="C1554">
-        <v>5453</v>
+        <v>5443</v>
       </c>
       <c r="D1554">
-        <v>7490033</v>
+        <v>7477180</v>
       </c>
       <c r="E1554" t="s">
         <v>29</v>
@@ -50966,10 +50966,10 @@
         <v>11</v>
       </c>
       <c r="C1557">
-        <v>23489</v>
+        <v>23437</v>
       </c>
       <c r="D1557">
-        <v>32715758</v>
+        <v>32654268</v>
       </c>
       <c r="E1557" t="s">
         <v>29</v>
@@ -50998,10 +50998,10 @@
         <v>11</v>
       </c>
       <c r="C1558">
-        <v>4110</v>
+        <v>4100</v>
       </c>
       <c r="D1558">
-        <v>5577768</v>
+        <v>5567560</v>
       </c>
       <c r="E1558" t="s">
         <v>29</v>
@@ -51030,10 +51030,10 @@
         <v>11</v>
       </c>
       <c r="C1559">
-        <v>4292</v>
+        <v>4272</v>
       </c>
       <c r="D1559">
-        <v>5303975</v>
+        <v>5284010</v>
       </c>
       <c r="E1559" t="s">
         <v>29</v>
@@ -51062,10 +51062,10 @@
         <v>11</v>
       </c>
       <c r="C1560">
-        <v>8482</v>
+        <v>8468</v>
       </c>
       <c r="D1560">
-        <v>11710830</v>
+        <v>11695861</v>
       </c>
       <c r="E1560" t="s">
         <v>29</v>
@@ -51094,10 +51094,10 @@
         <v>11</v>
       </c>
       <c r="C1561">
-        <v>8633</v>
+        <v>8608</v>
       </c>
       <c r="D1561">
-        <v>11350834</v>
+        <v>11324092</v>
       </c>
       <c r="E1561" t="s">
         <v>29</v>
@@ -51126,10 +51126,10 @@
         <v>11</v>
       </c>
       <c r="C1562">
-        <v>8187</v>
+        <v>8179</v>
       </c>
       <c r="D1562">
-        <v>11191068</v>
+        <v>11181228</v>
       </c>
       <c r="E1562" t="s">
         <v>29</v>
@@ -51318,10 +51318,10 @@
         <v>11</v>
       </c>
       <c r="C1568">
-        <v>6162</v>
+        <v>6159</v>
       </c>
       <c r="D1568">
-        <v>8302343</v>
+        <v>8297843</v>
       </c>
       <c r="E1568" t="s">
         <v>29</v>
@@ -51382,10 +51382,10 @@
         <v>11</v>
       </c>
       <c r="C1570">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="D1570">
-        <v>3628026</v>
+        <v>3625973</v>
       </c>
       <c r="E1570" t="s">
         <v>29</v>
@@ -51414,10 +51414,10 @@
         <v>11</v>
       </c>
       <c r="C1571">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D1571">
-        <v>1435464</v>
+        <v>1428838</v>
       </c>
       <c r="E1571" t="s">
         <v>29</v>
@@ -51478,10 +51478,10 @@
         <v>11</v>
       </c>
       <c r="C1573">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D1573">
-        <v>719151</v>
+        <v>716151</v>
       </c>
       <c r="E1573" t="s">
         <v>29</v>
@@ -51510,10 +51510,10 @@
         <v>11</v>
       </c>
       <c r="C1574">
-        <v>3575</v>
+        <v>3568</v>
       </c>
       <c r="D1574">
-        <v>4914602</v>
+        <v>4906168</v>
       </c>
       <c r="E1574" t="s">
         <v>29</v>
@@ -51574,10 +51574,10 @@
         <v>11</v>
       </c>
       <c r="C1576">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="D1576">
-        <v>1705920</v>
+        <v>1695515</v>
       </c>
       <c r="E1576" t="s">
         <v>29</v>
@@ -51638,10 +51638,10 @@
         <v>11</v>
       </c>
       <c r="C1578">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="D1578">
-        <v>2261065</v>
+        <v>2256136</v>
       </c>
       <c r="E1578" t="s">
         <v>29</v>
@@ -51830,10 +51830,10 @@
         <v>11</v>
       </c>
       <c r="C1584">
-        <v>3538</v>
+        <v>3534</v>
       </c>
       <c r="D1584">
-        <v>5088011</v>
+        <v>5082301</v>
       </c>
       <c r="E1584" t="s">
         <v>29</v>
@@ -51862,10 +51862,10 @@
         <v>11</v>
       </c>
       <c r="C1585">
-        <v>4567</v>
+        <v>4565</v>
       </c>
       <c r="D1585">
-        <v>6179753</v>
+        <v>6177769</v>
       </c>
       <c r="E1585" t="s">
         <v>29</v>
@@ -51894,10 +51894,10 @@
         <v>11</v>
       </c>
       <c r="C1586">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="D1586">
-        <v>5643183</v>
+        <v>5636221</v>
       </c>
       <c r="E1586" t="s">
         <v>29</v>
@@ -51958,10 +51958,10 @@
         <v>11</v>
       </c>
       <c r="C1588">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D1588">
-        <v>730151</v>
+        <v>727151</v>
       </c>
       <c r="E1588" t="s">
         <v>29</v>
@@ -52054,10 +52054,10 @@
         <v>11</v>
       </c>
       <c r="C1591">
-        <v>2313</v>
+        <v>2301</v>
       </c>
       <c r="D1591">
-        <v>3155308</v>
+        <v>3141999</v>
       </c>
       <c r="E1591" t="s">
         <v>29</v>
@@ -52086,10 +52086,10 @@
         <v>11</v>
       </c>
       <c r="C1592">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="D1592">
-        <v>1626590</v>
+        <v>1614500</v>
       </c>
       <c r="E1592" t="s">
         <v>29</v>
@@ -52118,10 +52118,10 @@
         <v>11</v>
       </c>
       <c r="C1593">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="D1593">
-        <v>1669005</v>
+        <v>1667397</v>
       </c>
       <c r="E1593" t="s">
         <v>29</v>
@@ -52150,10 +52150,10 @@
         <v>11</v>
       </c>
       <c r="C1594">
-        <v>2427</v>
+        <v>2421</v>
       </c>
       <c r="D1594">
-        <v>3283401</v>
+        <v>3278125</v>
       </c>
       <c r="E1594" t="s">
         <v>29</v>
@@ -52182,10 +52182,10 @@
         <v>11</v>
       </c>
       <c r="C1595">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="D1595">
-        <v>1388911</v>
+        <v>1386699</v>
       </c>
       <c r="E1595" t="s">
         <v>29</v>
@@ -52214,10 +52214,10 @@
         <v>11</v>
       </c>
       <c r="C1596">
-        <v>3743</v>
+        <v>3741</v>
       </c>
       <c r="D1596">
-        <v>4620129</v>
+        <v>4617682</v>
       </c>
       <c r="E1596" t="s">
         <v>29</v>
@@ -52374,10 +52374,10 @@
         <v>11</v>
       </c>
       <c r="C1601">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="D1601">
-        <v>4226560</v>
+        <v>4225825</v>
       </c>
       <c r="E1601" t="s">
         <v>29</v>
@@ -52470,10 +52470,10 @@
         <v>11</v>
       </c>
       <c r="C1604">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D1604">
-        <v>2291358</v>
+        <v>2288358</v>
       </c>
       <c r="E1604" t="s">
         <v>29</v>
@@ -52502,10 +52502,10 @@
         <v>11</v>
       </c>
       <c r="C1605">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D1605">
-        <v>853894</v>
+        <v>851969</v>
       </c>
       <c r="E1605" t="s">
         <v>29</v>
@@ -52534,10 +52534,10 @@
         <v>11</v>
       </c>
       <c r="C1606">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D1606">
-        <v>337998</v>
+        <v>334998</v>
       </c>
       <c r="E1606" t="s">
         <v>29</v>
@@ -52566,10 +52566,10 @@
         <v>11</v>
       </c>
       <c r="C1607">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D1607">
-        <v>989245</v>
+        <v>986245</v>
       </c>
       <c r="E1607" t="s">
         <v>29</v>
@@ -52598,10 +52598,10 @@
         <v>11</v>
       </c>
       <c r="C1608">
-        <v>2337</v>
+        <v>2323</v>
       </c>
       <c r="D1608">
-        <v>3194126</v>
+        <v>3179675</v>
       </c>
       <c r="E1608" t="s">
         <v>29</v>
@@ -52694,10 +52694,10 @@
         <v>11</v>
       </c>
       <c r="C1611">
-        <v>2100</v>
+        <v>2092</v>
       </c>
       <c r="D1611">
-        <v>2829175</v>
+        <v>2821722</v>
       </c>
       <c r="E1611" t="s">
         <v>29</v>
@@ -52726,10 +52726,10 @@
         <v>11</v>
       </c>
       <c r="C1612">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D1612">
-        <v>1060595</v>
+        <v>1058135</v>
       </c>
       <c r="E1612" t="s">
         <v>29</v>
@@ -52758,10 +52758,10 @@
         <v>11</v>
       </c>
       <c r="C1613">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="D1613">
-        <v>3120276</v>
+        <v>3118990</v>
       </c>
       <c r="E1613" t="s">
         <v>29</v>
@@ -52950,10 +52950,10 @@
         <v>11</v>
       </c>
       <c r="C1619">
-        <v>4359</v>
+        <v>4357</v>
       </c>
       <c r="D1619">
-        <v>5974571</v>
+        <v>5973017</v>
       </c>
       <c r="E1619" t="s">
         <v>29</v>
@@ -53046,10 +53046,10 @@
         <v>11</v>
       </c>
       <c r="C1622">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D1622">
-        <v>1444740</v>
+        <v>1439980</v>
       </c>
       <c r="E1622" t="s">
         <v>29</v>
@@ -53142,10 +53142,10 @@
         <v>11</v>
       </c>
       <c r="C1625">
-        <v>4183</v>
+        <v>4163</v>
       </c>
       <c r="D1625">
-        <v>5717111</v>
+        <v>5695766</v>
       </c>
       <c r="E1625" t="s">
         <v>29</v>
@@ -53174,10 +53174,10 @@
         <v>11</v>
       </c>
       <c r="C1626">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D1626">
-        <v>1800061</v>
+        <v>1797061</v>
       </c>
       <c r="E1626" t="s">
         <v>29</v>
@@ -53206,10 +53206,10 @@
         <v>11</v>
       </c>
       <c r="C1627">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="D1627">
-        <v>1710540</v>
+        <v>1701519</v>
       </c>
       <c r="E1627" t="s">
         <v>29</v>
@@ -53238,10 +53238,10 @@
         <v>11</v>
       </c>
       <c r="C1628">
-        <v>2792</v>
+        <v>2788</v>
       </c>
       <c r="D1628">
-        <v>3809028</v>
+        <v>3804828</v>
       </c>
       <c r="E1628" t="s">
         <v>29</v>
@@ -53270,10 +53270,10 @@
         <v>11</v>
       </c>
       <c r="C1629">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="D1629">
-        <v>2226663</v>
+        <v>2221369</v>
       </c>
       <c r="E1629" t="s">
         <v>29</v>
@@ -53302,10 +53302,10 @@
         <v>11</v>
       </c>
       <c r="C1630">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="D1630">
-        <v>3765328</v>
+        <v>3765088</v>
       </c>
       <c r="E1630" t="s">
         <v>29</v>
@@ -53430,10 +53430,10 @@
         <v>11</v>
       </c>
       <c r="C1634">
-        <v>2615</v>
+        <v>2607</v>
       </c>
       <c r="D1634">
-        <v>3761662</v>
+        <v>3752112</v>
       </c>
       <c r="E1634" t="s">
         <v>29</v>
@@ -53462,10 +53462,10 @@
         <v>11</v>
       </c>
       <c r="C1635">
-        <v>3535</v>
+        <v>3533</v>
       </c>
       <c r="D1635">
-        <v>4803449</v>
+        <v>4801345</v>
       </c>
       <c r="E1635" t="s">
         <v>29</v>
@@ -53494,10 +53494,10 @@
         <v>11</v>
       </c>
       <c r="C1636">
-        <v>3277</v>
+        <v>3273</v>
       </c>
       <c r="D1636">
-        <v>4720343</v>
+        <v>4714353</v>
       </c>
       <c r="E1636" t="s">
         <v>29</v>
@@ -53590,10 +53590,10 @@
         <v>11</v>
       </c>
       <c r="C1639">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D1639">
-        <v>399920</v>
+        <v>396920</v>
       </c>
       <c r="E1639" t="s">
         <v>29</v>
@@ -53622,10 +53622,10 @@
         <v>11</v>
       </c>
       <c r="C1640">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D1640">
-        <v>1349646</v>
+        <v>1346646</v>
       </c>
       <c r="E1640" t="s">
         <v>29</v>
@@ -53654,10 +53654,10 @@
         <v>11</v>
       </c>
       <c r="C1641">
-        <v>3401</v>
+        <v>3397</v>
       </c>
       <c r="D1641">
-        <v>4667570</v>
+        <v>4663915</v>
       </c>
       <c r="E1641" t="s">
         <v>29</v>
@@ -53686,10 +53686,10 @@
         <v>11</v>
       </c>
       <c r="C1642">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="D1642">
-        <v>1486904</v>
+        <v>1482406</v>
       </c>
       <c r="E1642" t="s">
         <v>29</v>
@@ -53718,10 +53718,10 @@
         <v>11</v>
       </c>
       <c r="C1643">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="D1643">
-        <v>2001531</v>
+        <v>1992109</v>
       </c>
       <c r="E1643" t="s">
         <v>29</v>
@@ -53750,10 +53750,10 @@
         <v>11</v>
       </c>
       <c r="C1644">
-        <v>3274</v>
+        <v>3264</v>
       </c>
       <c r="D1644">
-        <v>4435226</v>
+        <v>4420566</v>
       </c>
       <c r="E1644" t="s">
         <v>29</v>
@@ -53782,10 +53782,10 @@
         <v>11</v>
       </c>
       <c r="C1645">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D1645">
-        <v>1522734</v>
+        <v>1522254</v>
       </c>
       <c r="E1645" t="s">
         <v>29</v>
@@ -53814,10 +53814,10 @@
         <v>11</v>
       </c>
       <c r="C1646">
-        <v>3330</v>
+        <v>3320</v>
       </c>
       <c r="D1646">
-        <v>4249797</v>
+        <v>4243878</v>
       </c>
       <c r="E1646" t="s">
         <v>29</v>
